--- a/output/selected_training_variables.xlsx
+++ b/output/selected_training_variables.xlsx
@@ -14,270 +14,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C52</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+  <si>
+    <t>C2</t>
   </si>
   <si>
     <t>C31</t>
   </si>
   <si>
-    <t>C38</t>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C68</t>
+  </si>
+  <si>
+    <t>C70</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C61</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C57</t>
+  </si>
+  <si>
+    <t>C56</t>
+  </si>
+  <si>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C69</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C47</t>
+  </si>
+  <si>
+    <t>C63</t>
+  </si>
+  <si>
+    <t>C66</t>
+  </si>
+  <si>
+    <t>C64</t>
   </si>
   <si>
     <t>C36</t>
   </si>
   <si>
-    <t>C54</t>
-  </si>
-  <si>
-    <t>C50</t>
-  </si>
-  <si>
-    <t>C14</t>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C33</t>
   </si>
   <si>
     <t>C65</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>C69</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>C67</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>C24</t>
+    <t>C16</t>
   </si>
   <si>
     <t>C30</t>
   </si>
   <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>C47</t>
-  </si>
-  <si>
-    <t>C70</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C53</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>C61</t>
-  </si>
-  <si>
-    <t>C62</t>
-  </si>
-  <si>
-    <t>C63</t>
-  </si>
-  <si>
-    <t>C49</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C68</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
     <t>Sample name</t>
   </si>
   <si>
-    <t>variable5</t>
-  </si>
-  <si>
-    <t>variable46</t>
-  </si>
-  <si>
-    <t>variable63</t>
-  </si>
-  <si>
-    <t>variable84</t>
+    <t>variable43</t>
+  </si>
+  <si>
+    <t>variable69</t>
+  </si>
+  <si>
+    <t>variable82</t>
   </si>
   <si>
     <t>variable89</t>
   </si>
   <si>
-    <t>variable103</t>
-  </si>
-  <si>
     <t>variable117</t>
   </si>
   <si>
-    <t>variable120</t>
-  </si>
-  <si>
     <t>variable131</t>
   </si>
   <si>
-    <t>variable153</t>
+    <t>variable132</t>
+  </si>
+  <si>
+    <t>variable133</t>
   </si>
   <si>
     <t>variable166</t>
   </si>
   <si>
-    <t>variable167</t>
-  </si>
-  <si>
-    <t>variable171</t>
-  </si>
-  <si>
-    <t>variable172</t>
-  </si>
-  <si>
-    <t>variable177</t>
-  </si>
-  <si>
     <t>variable185</t>
   </si>
   <si>
-    <t>variable186</t>
-  </si>
-  <si>
-    <t>variable202</t>
-  </si>
-  <si>
-    <t>variable207</t>
-  </si>
-  <si>
-    <t>variable213</t>
-  </si>
-  <si>
-    <t>variable250</t>
-  </si>
-  <si>
-    <t>variable255</t>
+    <t>variable237</t>
+  </si>
+  <si>
+    <t>variable253</t>
   </si>
   <si>
     <t>variable259</t>
   </si>
   <si>
-    <t>variable280</t>
-  </si>
-  <si>
-    <t>variable292</t>
-  </si>
-  <si>
-    <t>variable306</t>
+    <t>variable261</t>
+  </si>
+  <si>
+    <t>variable290</t>
+  </si>
+  <si>
+    <t>variable317</t>
+  </si>
+  <si>
+    <t>variable332</t>
   </si>
   <si>
     <t>variable340</t>
   </si>
   <si>
-    <t>variable341</t>
-  </si>
-  <si>
-    <t>variable356</t>
-  </si>
-  <si>
-    <t>variable447</t>
-  </si>
-  <si>
-    <t>variable471</t>
-  </si>
-  <si>
-    <t>variable520</t>
-  </si>
-  <si>
-    <t>variable527</t>
-  </si>
-  <si>
-    <t>variable539</t>
-  </si>
-  <si>
-    <t>variable589</t>
-  </si>
-  <si>
-    <t>variable600</t>
-  </si>
-  <si>
-    <t>variable605</t>
-  </si>
-  <si>
-    <t>variable635</t>
+    <t>variable343</t>
+  </si>
+  <si>
+    <t>variable404</t>
+  </si>
+  <si>
+    <t>variable441</t>
+  </si>
+  <si>
+    <t>variable443</t>
+  </si>
+  <si>
+    <t>variable463</t>
+  </si>
+  <si>
+    <t>variable498</t>
+  </si>
+  <si>
+    <t>variable526</t>
+  </si>
+  <si>
+    <t>variable566</t>
+  </si>
+  <si>
+    <t>variable574</t>
+  </si>
+  <si>
+    <t>variable595</t>
+  </si>
+  <si>
+    <t>variable599</t>
   </si>
   <si>
     <t>variable640</t>
   </si>
   <si>
-    <t>variable650</t>
-  </si>
-  <si>
-    <t>variable659</t>
-  </si>
-  <si>
-    <t>variable676</t>
-  </si>
-  <si>
-    <t>variable686</t>
-  </si>
-  <si>
-    <t>variable696</t>
-  </si>
-  <si>
-    <t>variable712</t>
-  </si>
-  <si>
-    <t>variable734</t>
+    <t>variable643</t>
+  </si>
+  <si>
+    <t>variable646</t>
+  </si>
+  <si>
+    <t>variable661</t>
+  </si>
+  <si>
+    <t>variable731</t>
+  </si>
+  <si>
+    <t>variable732</t>
+  </si>
+  <si>
+    <t>variable733</t>
   </si>
   <si>
     <t>variable737</t>
   </si>
   <si>
-    <t>variable844</t>
+    <t>variable742</t>
+  </si>
+  <si>
+    <t>variable775</t>
+  </si>
+  <si>
+    <t>variable800</t>
+  </si>
+  <si>
+    <t>variable811</t>
+  </si>
+  <si>
+    <t>variable859</t>
+  </si>
+  <si>
+    <t>variable885</t>
   </si>
   <si>
     <t>variable893</t>
   </si>
   <si>
-    <t>variable935</t>
-  </si>
-  <si>
-    <t>variable941</t>
+    <t>variable965</t>
   </si>
   <si>
     <t>variable978</t>
@@ -615,13 +597,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC36"/>
+  <dimension ref="A1:AW36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:49">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -769,193 +751,157 @@
       <c r="AW1" t="s">
         <v>83</v>
       </c>
-      <c r="AX1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0.08032148764613266</v>
+        <v>457589.84</v>
       </c>
       <c r="D2">
-        <v>0.01156899254773501</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>13440.959</v>
       </c>
       <c r="F2">
-        <v>0.1149556524605497</v>
+        <v>15675.346</v>
       </c>
       <c r="G2">
-        <v>0.002414426864067935</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.00250965474897399</v>
+        <v>1267481.77</v>
       </c>
       <c r="I2">
-        <v>0.003074887539616024</v>
+        <v>35419.2</v>
       </c>
       <c r="J2">
-        <v>0.008371018008094432</v>
+        <v>94930.091</v>
       </c>
       <c r="K2">
-        <v>0.01993648079734386</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.002479557947223634</v>
+        <v>47201.654</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16179.406</v>
       </c>
       <c r="N2">
-        <v>0.03973786836965359</v>
+        <v>41722.879</v>
       </c>
       <c r="O2">
-        <v>0.005810828533313559</v>
+        <v>142042.887</v>
       </c>
       <c r="P2">
-        <v>0.004809047948343922</v>
+        <v>59542.561</v>
       </c>
       <c r="Q2">
-        <v>0.001097314282794493</v>
+        <v>33075.458</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>39060.962</v>
       </c>
       <c r="S2">
-        <v>0.004082521079511216</v>
+        <v>160028.305</v>
       </c>
       <c r="T2">
-        <v>0.3961924663094071</v>
+        <v>2989939.14</v>
       </c>
       <c r="U2">
-        <v>0.03807945924444003</v>
+        <v>74356.591</v>
       </c>
       <c r="V2">
-        <v>0.0009181727074094103</v>
+        <v>37461.15</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>29396.866</v>
       </c>
       <c r="X2">
-        <v>0.001471736599908324</v>
+        <v>55205.751</v>
       </c>
       <c r="Y2">
-        <v>0.01406493637329748</v>
+        <v>311052.646</v>
       </c>
       <c r="Z2">
-        <v>0.001253912291913593</v>
+        <v>9335.130999999999</v>
       </c>
       <c r="AA2">
-        <v>0.4304768168801575</v>
+        <v>1437668.18</v>
       </c>
       <c r="AB2">
-        <v>0.1231133647306015</v>
+        <v>152514.885</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>9845.902</v>
       </c>
       <c r="AD2">
-        <v>0.002671265242906973</v>
+        <v>13127.454</v>
       </c>
       <c r="AE2">
-        <v>0.06390108121254048</v>
+        <v>31073.996</v>
       </c>
       <c r="AF2">
-        <v>0.0004607603235533353</v>
+        <v>273487.923</v>
       </c>
       <c r="AG2">
-        <v>0.001167580764977345</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.003672279184832333</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.03461283046090255</v>
+        <v>315.015</v>
       </c>
       <c r="AJ2">
-        <v>0.00514620821302402</v>
+        <v>36090.381</v>
       </c>
       <c r="AK2">
-        <v>0.003252042165510377</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.007742646090676308</v>
+        <v>39852.751</v>
       </c>
       <c r="AM2">
-        <v>0.001180778138668721</v>
+        <v>28327.055</v>
       </c>
       <c r="AN2">
-        <v>0.01722725597366027</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>158.394</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>28755.553</v>
       </c>
       <c r="AQ2">
-        <v>0.002567720621049604</v>
+        <v>90861.42999999999</v>
       </c>
       <c r="AR2">
-        <v>0.009035690949804349</v>
+        <v>213679.987</v>
       </c>
       <c r="AS2">
-        <v>0.1026433710599315</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0008165996216789658</v>
+        <v>45804.966</v>
       </c>
       <c r="AU2">
-        <v>0.0008806661028149265</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>59082.882</v>
       </c>
       <c r="AW2">
-        <v>0.005082778293995766</v>
-      </c>
-      <c r="AX2">
-        <v>0.0003315782707997728</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0.1081179004152779</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0.007371302028480299</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
+        <v>103377.623</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -963,31 +909,31 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>81106.895</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02511921020732005</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.07496274537599801</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>59123.661</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.004822977001322152</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3019.85</v>
       </c>
       <c r="K3">
-        <v>0.0004336190948725399</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -996,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.005842031858636245</v>
+        <v>15241.572</v>
       </c>
       <c r="O3">
-        <v>0.0006776536822937302</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1014,16 +960,16 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.2148391927835737</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>18388.917</v>
       </c>
       <c r="V3">
-        <v>0.0002196958295864831</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>69851.74400000001</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1032,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.069879051641504E-06</v>
+        <v>192642.627</v>
       </c>
       <c r="AA3">
-        <v>0.2267165195310549</v>
+        <v>155575.398</v>
       </c>
       <c r="AB3">
-        <v>0.04414636513712435</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>20342.525</v>
       </c>
       <c r="AD3">
-        <v>0.001271935313929883</v>
+        <v>178920.342</v>
       </c>
       <c r="AE3">
-        <v>0.02774372254244923</v>
+        <v>263806.111</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1056,78 +1002,60 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>134006.764</v>
       </c>
       <c r="AI3">
-        <v>0.01851497566957682</v>
+        <v>17756.185</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>30803.793</v>
       </c>
       <c r="AK3">
-        <v>0.0002216644503284436</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>252519.454</v>
       </c>
       <c r="AN3">
-        <v>0.00760699657735926</v>
+        <v>218096.672</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>9537.99</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>74503.10799999999</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>5815.471</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>46310.432</v>
       </c>
       <c r="AS3">
-        <v>0.02999984596684169</v>
+        <v>50433.881</v>
       </c>
       <c r="AT3">
-        <v>0.0002229365823346414</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>93055.447</v>
       </c>
       <c r="AW3">
-        <v>0.02288094125232982</v>
-      </c>
-      <c r="AX3">
-        <v>0.0001356862507051099</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0.002269703728361181</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0.007713589258702603</v>
-      </c>
-      <c r="BC3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1136,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01864681817433711</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.04522192745142824</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.002162338392834091</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.005516126555156801</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1157,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001233143580769704</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.005606057361632539</v>
+        <v>7785.434</v>
       </c>
       <c r="O4">
-        <v>0.001149376887936603</v>
+        <v>42150.754</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1175,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>5033.354</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.235991398846851</v>
+        <v>2350448.37</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>10955.319</v>
       </c>
       <c r="V4">
-        <v>0.0002792239266111252</v>
+        <v>41730.941</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>14963.345</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1199,22 +1127,22 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0002119300435504943</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0700958251448658</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05840788216079781</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0003058684708698858</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.03275685822410299</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1226,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.02338624233960629</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>45312.813</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1241,13 +1169,13 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.006313491493595293</v>
+        <v>22003.727</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.003714062220339753</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1256,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.03458640921203074</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0001890344977403559</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1268,72 +1196,54 @@
         <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0235595909039377</v>
-      </c>
-      <c r="AX4">
-        <v>0.0002939664294073087</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0.004396812934574618</v>
-      </c>
-      <c r="BA4">
-        <v>0.001423957646894925</v>
-      </c>
-      <c r="BB4">
-        <v>0.008681898475446004</v>
-      </c>
-      <c r="BC4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.01031622010530723</v>
+        <v>149442.042</v>
       </c>
       <c r="D5">
-        <v>0.01197763348580685</v>
+        <v>107320.858</v>
       </c>
       <c r="E5">
-        <v>0.01194447919405631</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1300129125565833</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001370783310390291</v>
+        <v>57106.283</v>
       </c>
       <c r="H5">
-        <v>0.00294809348037526</v>
+        <v>42922.768</v>
       </c>
       <c r="I5">
-        <v>0.002242737394667065</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.008594479800127272</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.003025603916699353</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.004497478942628354</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.02353155580218019</v>
+        <v>23312.777</v>
       </c>
       <c r="O5">
-        <v>0.003487085116876324</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1345,186 +1255,168 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.003142063922687772</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.3163610658313601</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.04753511082395654</v>
+        <v>43561.215</v>
       </c>
       <c r="V5">
-        <v>0.0004497341804714385</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001721614304262182</v>
+        <v>99899.86</v>
       </c>
       <c r="X5">
-        <v>0.001084415652610189</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.006942434052851332</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0005633126524729571</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.1875541065301518</v>
+        <v>232900.055</v>
       </c>
       <c r="AB5">
-        <v>0.1076055817091097</v>
+        <v>8290.178</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>35242.678</v>
       </c>
       <c r="AD5">
-        <v>0.002185943954996172</v>
+        <v>410297.026</v>
       </c>
       <c r="AE5">
-        <v>0.05096635951853135</v>
+        <v>241859.071</v>
       </c>
       <c r="AF5">
-        <v>0.0004806781060353687</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001560838880166699</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001401368668351138</v>
+        <v>225727.63</v>
       </c>
       <c r="AI5">
-        <v>0.04717596628079525</v>
+        <v>7569.919</v>
       </c>
       <c r="AJ5">
-        <v>0.004704943821187128</v>
+        <v>49647.373</v>
       </c>
       <c r="AK5">
-        <v>0.001790281747232514</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.008271907951431909</v>
+        <v>7238.579</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>300766.896</v>
       </c>
       <c r="AN5">
-        <v>0.01435601283380623</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>83280.84299999999</v>
       </c>
       <c r="AQ5">
-        <v>0.003596995477237892</v>
+        <v>15804.938</v>
       </c>
       <c r="AR5">
-        <v>0.01443576278904227</v>
+        <v>84707.732</v>
       </c>
       <c r="AS5">
-        <v>0.08838792708086417</v>
+        <v>37619.93</v>
       </c>
       <c r="AT5">
-        <v>0.0008481815107745183</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>9117.040000000001</v>
       </c>
       <c r="AV5">
-        <v>0.0009918572782564375</v>
+        <v>120500.098</v>
       </c>
       <c r="AW5">
-        <v>0.008084784687242719</v>
-      </c>
-      <c r="AX5">
-        <v>0.001255588445332728</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0.01937924883993401</v>
-      </c>
-      <c r="BA5">
-        <v>0.06829152043321157</v>
-      </c>
-      <c r="BB5">
-        <v>0.007730244527705675</v>
-      </c>
-      <c r="BC5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.002061953233581942</v>
+        <v>159667.871</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>219799.968</v>
       </c>
       <c r="E6">
-        <v>0.009067058929569587</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>14297.376</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>30230.921</v>
       </c>
       <c r="H6">
-        <v>0.002397153844848502</v>
+        <v>214359.31</v>
       </c>
       <c r="I6">
-        <v>0.00859391797936471</v>
+        <v>45801.188</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>53626.937</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>36342.834</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14582.064</v>
       </c>
       <c r="N6">
-        <v>0.01037169469374758</v>
+        <v>41534.208</v>
       </c>
       <c r="O6">
-        <v>0.001208944791492943</v>
+        <v>118827.8</v>
       </c>
       <c r="P6">
-        <v>0.001166323675295824</v>
+        <v>51288.501</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>19588.44</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>10715.108</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>199165.949</v>
       </c>
       <c r="T6">
-        <v>0.2517975212845148</v>
+        <v>23163.687</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>114842.886</v>
       </c>
       <c r="V6">
-        <v>0.0005393197741211901</v>
+        <v>21571.835</v>
       </c>
       <c r="W6">
-        <v>0.0003238572330809973</v>
+        <v>69774.662</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1533,25 +1425,25 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>40547.609</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1753856.85</v>
       </c>
       <c r="AB6">
-        <v>0.05415203276464899</v>
+        <v>84226.914</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>30619.686</v>
       </c>
       <c r="AD6">
-        <v>0.00046665043998809</v>
+        <v>52912.832</v>
       </c>
       <c r="AE6">
-        <v>0.03865386501754663</v>
+        <v>103375.518</v>
       </c>
       <c r="AF6">
-        <v>3.932601032312746E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1560,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.03122855691121298</v>
+        <v>15953.921</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>171935.685</v>
       </c>
       <c r="AK6">
-        <v>0.0007675786003522604</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1575,55 +1467,37 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.01034815195116876</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>6579.953</v>
       </c>
       <c r="AP6">
-        <v>0.002243982065328612</v>
+        <v>76503.679</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>115667.098</v>
       </c>
       <c r="AR6">
-        <v>0.005503653162813518</v>
+        <v>246450.614</v>
       </c>
       <c r="AS6">
-        <v>0.05977337793594776</v>
+        <v>9778.378000000001</v>
       </c>
       <c r="AT6">
-        <v>0.000175132577922806</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>93335.068</v>
       </c>
       <c r="AW6">
-        <v>0.03294323762059545</v>
-      </c>
-      <c r="AX6">
-        <v>0.001492239061158498</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0.005164142987548383</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0.00685838329732525</v>
-      </c>
-      <c r="BC6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1631,261 +1505,243 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>228400.465</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>221318.174</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2463762919801455</v>
+        <v>14590.9</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>27743.086</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.003392669986063547</v>
+        <v>140836.196</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>49729.161</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>62531.125</v>
       </c>
       <c r="L7">
-        <v>4.213707766550928E-06</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>19738.405</v>
       </c>
       <c r="N7">
-        <v>0.02933028518677381</v>
+        <v>33778.926</v>
       </c>
       <c r="O7">
-        <v>0.001532085739014401</v>
+        <v>120407.137</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>54438.864</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>16905.384</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>18689.488</v>
       </c>
       <c r="S7">
-        <v>0.002478427865270381</v>
+        <v>62942.664</v>
       </c>
       <c r="T7">
-        <v>0.3402335958916696</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>44576.332</v>
       </c>
       <c r="V7">
-        <v>0.0007311318681240255</v>
+        <v>89888.497</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>99578.656</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.004348541118705445</v>
+        <v>151917.145</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>75996.251</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1061190.92</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>88749.51300000001</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>32510.517</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.08184385402644839</v>
+        <v>126483.401</v>
       </c>
       <c r="AF7">
-        <v>0.0004512744967340342</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>108351.685</v>
       </c>
       <c r="AI7">
-        <v>0.01056478884006308</v>
+        <v>5863.116</v>
       </c>
       <c r="AJ7">
-        <v>0.0008858475365978296</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.0007227224381980763</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>30042.404</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>128152.688</v>
       </c>
       <c r="AN7">
-        <v>0.01649014248219613</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>8642.780000000001</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>83878.93399999999</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>97182.16099999999</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>232928.926</v>
       </c>
       <c r="AS7">
-        <v>0.07572707923636558</v>
+        <v>9500.929</v>
       </c>
       <c r="AT7">
-        <v>0.0004167987360098397</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>43630.863</v>
       </c>
       <c r="AV7">
-        <v>0.002120501759211075</v>
+        <v>88698.86500000001</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
-      <c r="AX7">
-        <v>0.002082384850938216</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0.007688861126281168</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0.007846672636349351</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>467591.77</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>381781.751</v>
       </c>
       <c r="E8">
-        <v>0.01463068387557485</v>
+        <v>34107.097</v>
       </c>
       <c r="F8">
-        <v>0.06861637254153827</v>
+        <v>5344.613</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>31302.866</v>
       </c>
       <c r="H8">
-        <v>0.002346678531778278</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.008718991341819988</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>73350.264</v>
       </c>
       <c r="K8">
-        <v>0.003160099642221451</v>
+        <v>75845.349</v>
       </c>
       <c r="L8">
-        <v>0.00149320159013245</v>
+        <v>72588.86500000001</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>38016.222</v>
       </c>
       <c r="N8">
-        <v>0.009273772829095974</v>
+        <v>108382.508</v>
       </c>
       <c r="O8">
-        <v>0.002178358324304827</v>
+        <v>97030.452</v>
       </c>
       <c r="P8">
-        <v>0.001931162027917505</v>
+        <v>127418.734</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>22048.784</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>35715.264</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>115205.468</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>2166918.05</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>164156.571</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>72092.643</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>73735.716</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>109145.991</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>201002.537</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>30287.138</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1098029.1</v>
       </c>
       <c r="AB8">
-        <v>0.04622817818724029</v>
+        <v>37625.348</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>15916.721</v>
       </c>
       <c r="AD8">
-        <v>0.0006229312677435578</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.02881258211908515</v>
+        <v>30224.87</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>555820.678</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1894,90 +1750,72 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.02921545683367496</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>84789.75900000001</v>
       </c>
       <c r="AK8">
-        <v>0.0004252720868863393</v>
+        <v>433283.159</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>95116.345</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>24758.561</v>
       </c>
       <c r="AN8">
-        <v>0.009925580450486223</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.001918243250745496</v>
+        <v>54260.548</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>52373.778</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>307073.124</v>
       </c>
       <c r="AS8">
-        <v>0.08213061146494442</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>0.0002751922818314844</v>
+        <v>50650.725</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>50473.092</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>53124.862</v>
       </c>
       <c r="AW8">
-        <v>0.03672882971541507</v>
-      </c>
-      <c r="AX8">
-        <v>0.0008439422574317699</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0.007902563702509214</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0.01214593090893243</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
+        <v>323452.541</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>82820.232</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.145643738987062</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>35823.915</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1986,22 +1824,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>75771.292</v>
       </c>
       <c r="K9">
-        <v>0.01216114350909493</v>
+        <v>56636.482</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>22806.231</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>113915.351</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>111246.082</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2010,58 +1848,58 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>17026.644</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>77240.489</v>
       </c>
       <c r="T9">
-        <v>0.5602908593625714</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>161736.726</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>87637.414</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>75243.101</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.02533103287472997</v>
+        <v>124627.074</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>38068.776</v>
       </c>
       <c r="AA9">
-        <v>0.5468647468953044</v>
+        <v>1253439.88</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>72065.82000000001</v>
       </c>
       <c r="AC9">
-        <v>0.8273707957665601</v>
+        <v>5625.46</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>21341.019</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>45302.763</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1924.065</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3420.413</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2070,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>70424.79700000001</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>40903.05</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2082,49 +1920,31 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.0061395310362136</v>
+        <v>69580.19</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>55850.858</v>
       </c>
       <c r="AR9">
-        <v>0.001239637897497778</v>
+        <v>427191.518</v>
       </c>
       <c r="AS9">
-        <v>0.02886158529150526</v>
+        <v>0</v>
       </c>
       <c r="AT9">
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>11414.146</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>53373.378</v>
       </c>
       <c r="AW9">
         <v>0</v>
       </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2132,94 +1952,94 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>473772.143</v>
       </c>
       <c r="D10">
-        <v>0.01081392885374828</v>
+        <v>116090.634</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>21177.365</v>
       </c>
       <c r="F10">
-        <v>0.08730507011366957</v>
+        <v>33183.135</v>
       </c>
       <c r="G10">
-        <v>0.0009578814427168588</v>
+        <v>21064.003</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2242189.45</v>
       </c>
       <c r="I10">
-        <v>0.003061954501638879</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>108368.903</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>73440.141</v>
       </c>
       <c r="L10">
-        <v>0.0007739382041666249</v>
+        <v>127671.956</v>
       </c>
       <c r="M10">
-        <v>0.008241388065157829</v>
+        <v>17556.827</v>
       </c>
       <c r="N10">
-        <v>0.023473026041482</v>
+        <v>22680.706</v>
       </c>
       <c r="O10">
-        <v>0.002259163334488586</v>
+        <v>218070.181</v>
       </c>
       <c r="P10">
-        <v>0.002627543077778298</v>
+        <v>32211.682</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>36689.105</v>
       </c>
       <c r="R10">
-        <v>0.006128087743268913</v>
+        <v>21577.893</v>
       </c>
       <c r="S10">
-        <v>0.003843331165015367</v>
+        <v>93764.48</v>
       </c>
       <c r="T10">
-        <v>0.343226626973558</v>
+        <v>2996647.54</v>
       </c>
       <c r="U10">
-        <v>0.03157396445887185</v>
+        <v>37836.013</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>96153.66800000001</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>60825.26</v>
       </c>
       <c r="X10">
-        <v>0.00159265627287269</v>
+        <v>63709.269</v>
       </c>
       <c r="Y10">
-        <v>0.01205520612550791</v>
+        <v>253051.397</v>
       </c>
       <c r="Z10">
-        <v>1.352947813225744E-05</v>
+        <v>28000.271</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1415577.19</v>
       </c>
       <c r="AB10">
-        <v>0.1509523927872163</v>
+        <v>106039.205</v>
       </c>
       <c r="AC10">
-        <v>0.2638633940255235</v>
+        <v>9943.223</v>
       </c>
       <c r="AD10">
-        <v>0.000249614138113636</v>
+        <v>291349.271</v>
       </c>
       <c r="AE10">
-        <v>0.04652909583560569</v>
+        <v>12598.209</v>
       </c>
       <c r="AF10">
-        <v>0.0003889716714425532</v>
+        <v>549360.385</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -2228,165 +2048,147 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.02234794931457346</v>
+        <v>2447.508</v>
       </c>
       <c r="AJ10">
-        <v>0.004549317414884434</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.00133124638512627</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>25760.381</v>
       </c>
       <c r="AM10">
-        <v>0.0005080941236791268</v>
+        <v>43598.651</v>
       </c>
       <c r="AN10">
-        <v>0.02914851242461555</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>0.03385721268571676</v>
+        <v>5974.394</v>
       </c>
       <c r="AP10">
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>157943.008</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>311658.353</v>
       </c>
       <c r="AS10">
-        <v>0.06660449459415674</v>
+        <v>4189.778</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>37799.932</v>
       </c>
       <c r="AU10">
-        <v>0.001343234771258995</v>
+        <v>29512.426</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>68792.27899999999</v>
       </c>
       <c r="AW10">
-        <v>0.003437151394320461</v>
-      </c>
-      <c r="AX10">
-        <v>0.001292516423418327</v>
-      </c>
-      <c r="AY10">
-        <v>0.004312602308175974</v>
-      </c>
-      <c r="AZ10">
-        <v>0.03186450052856397</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0.006325760964345283</v>
-      </c>
-      <c r="BC10">
-        <v>0.0279127987690815</v>
+        <v>193305.557</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.05300968040443298</v>
+        <v>316994.277</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01105795301330649</v>
+        <v>16211.703</v>
       </c>
       <c r="F11">
-        <v>0.03187112321988175</v>
+        <v>28164.096</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.003180713876786898</v>
+        <v>1433257.68</v>
       </c>
       <c r="I11">
-        <v>0.003467774877943022</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.002201429055170398</v>
+        <v>33860.577</v>
       </c>
       <c r="K11">
-        <v>0.01326932985209065</v>
+        <v>67743.405</v>
       </c>
       <c r="L11">
-        <v>0.001123592208155361</v>
+        <v>132660.648</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>68037.49400000001</v>
       </c>
       <c r="N11">
-        <v>0.01543934263155442</v>
+        <v>158252.791</v>
       </c>
       <c r="O11">
-        <v>0.002541473483067395</v>
+        <v>55063.735</v>
       </c>
       <c r="P11">
-        <v>0.001374444015835424</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>15125.641</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>52245.148</v>
       </c>
       <c r="T11">
-        <v>0.3541083102149585</v>
+        <v>1540547.17</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>312829.321</v>
       </c>
       <c r="V11">
-        <v>0.0009963260043551567</v>
+        <v>61309.867</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>98120.13800000001</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>86284.033</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.0003185551655006823</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.2739446481641585</v>
+        <v>2696251.84</v>
       </c>
       <c r="AB11">
-        <v>0.06459090146015962</v>
+        <v>254723.469</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.0006560024542245036</v>
+        <v>25813.667</v>
       </c>
       <c r="AE11">
-        <v>0.04089288745521798</v>
+        <v>137194.066</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>508924.002</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2395,70 +2197,52 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.02927247777408475</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>91596.501</v>
       </c>
       <c r="AK11">
-        <v>0.002143711701726849</v>
+        <v>927987.203</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>94622.30899999999</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>62603.711</v>
       </c>
       <c r="AN11">
-        <v>0.009061130259564093</v>
+        <v>57728.209</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.002662115577426793</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0.0008837208256921289</v>
+        <v>49881.389</v>
       </c>
       <c r="AR11">
-        <v>0.008863211059480805</v>
+        <v>645004.307</v>
       </c>
       <c r="AS11">
-        <v>0.05309102789376367</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>0.0006620467827767989</v>
+        <v>80665.3</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>52026.785</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>124684.133</v>
       </c>
       <c r="AW11">
-        <v>0.01245947707838241</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0.008651767753001638</v>
-      </c>
-      <c r="BA11">
-        <v>0.003098730424599339</v>
-      </c>
-      <c r="BB11">
-        <v>0.01064473616834278</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
+        <v>181316.333</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2466,49 +2250,49 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.00325981372121825</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>31761.465</v>
       </c>
       <c r="E12">
-        <v>0.005834150674291444</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.03069546543500605</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>36476.441</v>
       </c>
       <c r="H12">
-        <v>0.002211088572571194</v>
+        <v>12647.372</v>
       </c>
       <c r="I12">
-        <v>0.004892948973077365</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0009970752584010452</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.003677684881140626</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.001135124435036854</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.01878095570601597</v>
+        <v>14874.811</v>
       </c>
       <c r="O12">
-        <v>0.003224390183447699</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.001920723915610834</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.0003570981662201934</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2517,16 +2301,16 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0.3729665424659624</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>40615.119</v>
       </c>
       <c r="V12">
-        <v>0.000702536029968991</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>102258.339</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -2535,22 +2319,22 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.0005476030671131647</v>
+        <v>209478.429</v>
       </c>
       <c r="AA12">
-        <v>0.1389188150502645</v>
+        <v>142571.27</v>
       </c>
       <c r="AB12">
-        <v>0.1237782984145991</v>
+        <v>11430.516</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>4149.276</v>
       </c>
       <c r="AD12">
-        <v>0.001200399731746366</v>
+        <v>276590.611</v>
       </c>
       <c r="AE12">
-        <v>0.03887783723838209</v>
+        <v>107548.862</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2559,73 +2343,55 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>70436.967</v>
       </c>
       <c r="AI12">
-        <v>0.03432929992236011</v>
+        <v>10722.19</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>30382.395</v>
       </c>
       <c r="AK12">
-        <v>0.00130369394294432</v>
+        <v>27430.542</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>166059.337</v>
       </c>
       <c r="AN12">
-        <v>0.02656682487400029</v>
+        <v>156562.327</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>19915.443</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>65536.129</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>15146.845</v>
       </c>
       <c r="AR12">
-        <v>0.002577061880139289</v>
+        <v>82094.947</v>
       </c>
       <c r="AS12">
-        <v>0.07738613922007204</v>
+        <v>83192.692</v>
       </c>
       <c r="AT12">
-        <v>0.0006597085012993903</v>
+        <v>0</v>
       </c>
       <c r="AU12">
-        <v>2.615469017265107E-05</v>
+        <v>11734.912</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>21022.11</v>
       </c>
       <c r="AW12">
-        <v>0.025770142926635</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0.007845955424886999</v>
-      </c>
-      <c r="BA12">
-        <v>0.005850486956063695</v>
-      </c>
-      <c r="BB12">
-        <v>0.01032462278738789</v>
-      </c>
-      <c r="BC12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2633,43 +2399,43 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>174635.974</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>102618.223</v>
       </c>
       <c r="E13">
-        <v>0.04063885640620844</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1046692851314559</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>88805.74400000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>45502.174</v>
       </c>
       <c r="I13">
-        <v>0.004207930632571777</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.001351978584402066</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>9.13892026736869E-06</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14818.83</v>
       </c>
       <c r="N13">
-        <v>0.001968358276258534</v>
+        <v>18258.055</v>
       </c>
       <c r="O13">
-        <v>0.001005754804814506</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2684,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0.2442839540375246</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>41705.045</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>96334.35400000001</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -2702,34 +2468,34 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1.572332531792914E-05</v>
+        <v>172855.643</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>377868.944</v>
       </c>
       <c r="AB13">
-        <v>0.02683420053376717</v>
+        <v>20359.239</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>22905.035</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>303340.931</v>
       </c>
       <c r="AE13">
-        <v>0.03694709259636596</v>
+        <v>166913.131</v>
       </c>
       <c r="AF13">
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2090.824</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>64205.765</v>
       </c>
       <c r="AI13">
-        <v>0.009126304888149665</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -2741,58 +2507,40 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>3.63306037400199E-06</v>
+        <v>333864.997</v>
       </c>
       <c r="AN13">
-        <v>0.004317723909626351</v>
+        <v>77576.872</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>23205.206</v>
       </c>
       <c r="AP13">
-        <v>0.007094959627639254</v>
+        <v>76167.85799999999</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>14154.184</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>76847.302</v>
       </c>
       <c r="AS13">
-        <v>0.01339331666569593</v>
+        <v>42557.39</v>
       </c>
       <c r="AT13">
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>21383.28</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>120647.316</v>
       </c>
       <c r="AW13">
-        <v>0.006385925351273958</v>
-      </c>
-      <c r="AX13">
-        <v>0.0003285055890028105</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0.0008678439970949262</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0.008225993122399243</v>
-      </c>
-      <c r="BC13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2800,91 +2548,91 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.002413755471778385</v>
+        <v>497111.449</v>
       </c>
       <c r="D14">
-        <v>0.01251753592685755</v>
+        <v>138199.016</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.1058666308073084</v>
+        <v>11574.566</v>
       </c>
       <c r="G14">
-        <v>0.001862923354815615</v>
+        <v>32914.726</v>
       </c>
       <c r="H14">
-        <v>0.003659929570799423</v>
+        <v>116857.396</v>
       </c>
       <c r="I14">
-        <v>0.001511388407678074</v>
+        <v>133077.282</v>
       </c>
       <c r="J14">
-        <v>0.003973072742196787</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.008386110577720405</v>
+        <v>79398.183</v>
       </c>
       <c r="L14">
-        <v>0.002195090715928391</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.005189866249446183</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.02959674133536511</v>
+        <v>28359.323</v>
       </c>
       <c r="O14">
-        <v>0.005455867746507813</v>
+        <v>83287.728</v>
       </c>
       <c r="P14">
-        <v>0.003555158237509793</v>
+        <v>36678.711</v>
       </c>
       <c r="Q14">
-        <v>0.001628520555569616</v>
+        <v>14345.979</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>17231.853</v>
       </c>
       <c r="S14">
-        <v>0.003955533470237094</v>
+        <v>54460.533</v>
       </c>
       <c r="T14">
-        <v>0.4015153136009437</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0.03587169446657079</v>
+        <v>40468.359</v>
       </c>
       <c r="V14">
-        <v>0.001205580195119393</v>
+        <v>74315.84600000001</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>41328.475</v>
       </c>
       <c r="X14">
-        <v>0.00157268887833697</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.01256172254735926</v>
+        <v>145733.052</v>
       </c>
       <c r="Z14">
-        <v>0.0007392503994290344</v>
+        <v>38326.356</v>
       </c>
       <c r="AA14">
-        <v>0.2076264340020115</v>
+        <v>1254206.43</v>
       </c>
       <c r="AB14">
-        <v>0.1728271501462226</v>
+        <v>99144.106</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0.001089213020394716</v>
+        <v>67057.47199999999</v>
       </c>
       <c r="AE14">
-        <v>0.0561334146737769</v>
+        <v>81453.86900000001</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2893,240 +2641,204 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0.00104981156209977</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>0.04029529624573695</v>
+        <v>5491.47</v>
       </c>
       <c r="AJ14">
-        <v>0.005426725712212088</v>
+        <v>63492.767</v>
       </c>
       <c r="AK14">
-        <v>0.002319442986968203</v>
+        <v>0</v>
       </c>
       <c r="AL14">
-        <v>0.008653475748605689</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>82021.62300000001</v>
       </c>
       <c r="AN14">
-        <v>0.0250687035875558</v>
+        <v>104925.43</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>9.738408319906195E-05</v>
+        <v>102000.8</v>
       </c>
       <c r="AQ14">
-        <v>0.01141334334254882</v>
+        <v>106768.338</v>
       </c>
       <c r="AR14">
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.1210930333543205</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>0.00134409647451891</v>
+        <v>0</v>
       </c>
       <c r="AU14">
-        <v>0.000767773824797237</v>
+        <v>44359.792</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>123879.051</v>
       </c>
       <c r="AW14">
-        <v>0.004041671089336004</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0.02553322668631625</v>
-      </c>
-      <c r="BA14">
-        <v>0.0381012557978938</v>
-      </c>
-      <c r="BB14">
-        <v>0.007596236094555219</v>
-      </c>
-      <c r="BC14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>254912.601</v>
       </c>
       <c r="D15">
-        <v>0.0146871297114023</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01273845746017468</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>13683.491</v>
       </c>
       <c r="G15">
-        <v>0.001552851970012283</v>
+        <v>21190.121</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>167201.574</v>
       </c>
       <c r="I15">
-        <v>0.00286233446410858</v>
+        <v>32681.484</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>62367.665</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>42327.104</v>
       </c>
       <c r="L15">
-        <v>0.001934182137538294</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>17697.833</v>
       </c>
       <c r="N15">
-        <v>0.0187263729822229</v>
+        <v>33154.138</v>
       </c>
       <c r="O15">
-        <v>0.001908442071069153</v>
+        <v>120893.044</v>
       </c>
       <c r="P15">
-        <v>0.003575203903029993</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.001418501192082573</v>
+        <v>25133.293</v>
       </c>
       <c r="R15">
-        <v>0.003955809786603345</v>
+        <v>18469.923</v>
       </c>
       <c r="S15">
-        <v>0.005063944577946316</v>
+        <v>147638.544</v>
       </c>
       <c r="T15">
-        <v>0.3604657342042253</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0.04148653858801916</v>
+        <v>41356.655</v>
       </c>
       <c r="V15">
-        <v>0.001357997773131397</v>
+        <v>33672.099</v>
       </c>
       <c r="W15">
-        <v>0.001924825294973976</v>
+        <v>51716.788</v>
       </c>
       <c r="X15">
-        <v>0.002763075441445993</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>0.01431559493599923</v>
+        <v>213484.482</v>
       </c>
       <c r="Z15">
-        <v>1.530668601589668E-06</v>
+        <v>34774.569</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1313420.1</v>
       </c>
       <c r="AB15">
-        <v>0.1539383632448195</v>
+        <v>166447.62</v>
       </c>
       <c r="AC15">
-        <v>0.1864597854217305</v>
+        <v>25935.166</v>
       </c>
       <c r="AD15">
-        <v>0.000657622262357107</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>0.05037053351845914</v>
+        <v>87480.686</v>
       </c>
       <c r="AF15">
-        <v>0.0006023880301361543</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>0.001927411287123996</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0.02357054514276713</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0.004145891476002695</v>
+        <v>41712.682</v>
       </c>
       <c r="AK15">
-        <v>0.002378065964176689</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>56850.996</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>58050.369</v>
       </c>
       <c r="AN15">
-        <v>0.01877886672915881</v>
+        <v>97954.674</v>
       </c>
       <c r="AO15">
-        <v>0.03962398469355945</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>61797.25</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>92744.322</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>242416.781</v>
       </c>
       <c r="AS15">
-        <v>0.06571179051951302</v>
+        <v>12032.782</v>
       </c>
       <c r="AT15">
-        <v>0.0004719414099879946</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>0.0007279442054522207</v>
+        <v>9983.852999999999</v>
       </c>
       <c r="AV15">
-        <v>0.002838755024284248</v>
+        <v>77417.421</v>
       </c>
       <c r="AW15">
         <v>0</v>
       </c>
-      <c r="AX15">
-        <v>0.0004029838965663988</v>
-      </c>
-      <c r="AY15">
-        <v>0.001847156717895381</v>
-      </c>
-      <c r="AZ15">
-        <v>0.04222510350733817</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0.006438041039138813</v>
-      </c>
-      <c r="BC15">
-        <v>0.01909993930040233</v>
-      </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3134,690 +2846,618 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>307266.616</v>
       </c>
       <c r="D16">
-        <v>0.01432557229691425</v>
+        <v>141256.937</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>31636.419</v>
       </c>
       <c r="F16">
-        <v>0.2310236331082911</v>
+        <v>7531.017</v>
       </c>
       <c r="G16">
-        <v>0.002317754237744836</v>
+        <v>22090.553</v>
       </c>
       <c r="H16">
-        <v>0.00239411188164955</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.00243329503722878</v>
+        <v>95062.196</v>
       </c>
       <c r="J16">
-        <v>0.01172957300524632</v>
+        <v>76125.065</v>
       </c>
       <c r="K16">
-        <v>0.1072344297340024</v>
+        <v>43859.927</v>
       </c>
       <c r="L16">
-        <v>0.001894795461741555</v>
+        <v>85771.95699999999</v>
       </c>
       <c r="M16">
-        <v>0.005799785643083807</v>
+        <v>47386.304</v>
       </c>
       <c r="N16">
-        <v>0.05532715395736171</v>
+        <v>61769.296</v>
       </c>
       <c r="O16">
-        <v>0.008448799947183607</v>
+        <v>122169.994</v>
       </c>
       <c r="P16">
-        <v>0.005783298601775542</v>
+        <v>37569.96</v>
       </c>
       <c r="Q16">
-        <v>0.001470185233031601</v>
+        <v>23051.864</v>
       </c>
       <c r="R16">
-        <v>0.003312463636009262</v>
+        <v>16302.166</v>
       </c>
       <c r="S16">
-        <v>0.005521356715455354</v>
+        <v>132760.958</v>
       </c>
       <c r="T16">
-        <v>0.4134416124489308</v>
+        <v>3878073.43</v>
       </c>
       <c r="U16">
-        <v>0.04246302842854656</v>
+        <v>80185.251</v>
       </c>
       <c r="V16">
-        <v>0.001328048350964109</v>
+        <v>79313.61599999999</v>
       </c>
       <c r="W16">
-        <v>0.001584821109058891</v>
+        <v>55907.22</v>
       </c>
       <c r="X16">
-        <v>0.003178209549094282</v>
+        <v>183518.847</v>
       </c>
       <c r="Y16">
-        <v>0.01745364350910781</v>
+        <v>160926.145</v>
       </c>
       <c r="Z16">
-        <v>0.001420993248851203</v>
+        <v>14244.6</v>
       </c>
       <c r="AA16">
-        <v>0.418150197731769</v>
+        <v>1280025.92</v>
       </c>
       <c r="AB16">
-        <v>0.1292715829770404</v>
+        <v>66341.754</v>
       </c>
       <c r="AC16">
-        <v>0.228240981943086</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.001326926751455313</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>0.0732440152548387</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>0.0003938535646733319</v>
+        <v>326966.117</v>
       </c>
       <c r="AG16">
-        <v>0.004227173226433247</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>0.002771820071048689</v>
+        <v>26318.177</v>
       </c>
       <c r="AI16">
-        <v>0.04585123047639115</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0.004128616519108661</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>0.003091803452958495</v>
+        <v>288333.156</v>
       </c>
       <c r="AL16">
-        <v>0.01368115605023871</v>
+        <v>51426.622</v>
       </c>
       <c r="AM16">
-        <v>0.002405445844810345</v>
+        <v>13653.811</v>
       </c>
       <c r="AN16">
-        <v>0.02422848282251117</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>0.02283493610974817</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>31460.608</v>
       </c>
       <c r="AQ16">
-        <v>0.00287899516866021</v>
+        <v>65771.465</v>
       </c>
       <c r="AR16">
-        <v>0.01536659740507987</v>
+        <v>262280.909</v>
       </c>
       <c r="AS16">
-        <v>0.1428019130342688</v>
+        <v>2318.969</v>
       </c>
       <c r="AT16">
-        <v>0.001058288672307053</v>
+        <v>39092.477</v>
       </c>
       <c r="AU16">
-        <v>0.0008971745793394573</v>
+        <v>21080.778</v>
       </c>
       <c r="AV16">
-        <v>0.001929976630700319</v>
+        <v>48703.015</v>
       </c>
       <c r="AW16">
-        <v>0.003956911180336781</v>
-      </c>
-      <c r="AX16">
-        <v>0.003817090123889543</v>
-      </c>
-      <c r="AY16">
-        <v>0.001649481757102485</v>
-      </c>
-      <c r="AZ16">
-        <v>0.08485547152340527</v>
-      </c>
-      <c r="BA16">
-        <v>0.05201250720981413</v>
-      </c>
-      <c r="BB16">
-        <v>0.009494408054790997</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
+        <v>406608.097</v>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>235975.52</v>
       </c>
       <c r="D17">
-        <v>0.01228935762012578</v>
+        <v>231225.05</v>
       </c>
       <c r="E17">
-        <v>0.006889393186897584</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.07298122118975393</v>
+        <v>16717.542</v>
       </c>
       <c r="G17">
-        <v>0.0007726806920983269</v>
+        <v>21043.031</v>
       </c>
       <c r="H17">
-        <v>0.00364290099894832</v>
+        <v>59595.756</v>
       </c>
       <c r="I17">
-        <v>0.002632709533541111</v>
+        <v>52050.228</v>
       </c>
       <c r="J17">
-        <v>0.005139694748325754</v>
+        <v>15983.657</v>
       </c>
       <c r="K17">
-        <v>0.1256562770600481</v>
+        <v>11613.413</v>
       </c>
       <c r="L17">
-        <v>0.001663288652628288</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008637557823455447</v>
+        <v>22424.262</v>
       </c>
       <c r="N17">
-        <v>0.02703315471673619</v>
+        <v>60381.463</v>
       </c>
       <c r="O17">
-        <v>0.003937642191511159</v>
+        <v>82807.031</v>
       </c>
       <c r="P17">
-        <v>0.003245101375052547</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.001116228620032699</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0.005684555754536891</v>
+        <v>14401.41</v>
       </c>
       <c r="S17">
-        <v>0.006046837044195123</v>
+        <v>40488.769</v>
       </c>
       <c r="T17">
-        <v>0.3482539037050854</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.03574848350862635</v>
+        <v>99409.47199999999</v>
       </c>
       <c r="V17">
-        <v>0.0008396416832688534</v>
+        <v>50349.017</v>
       </c>
       <c r="W17">
-        <v>0.001871957952280907</v>
+        <v>57101.782</v>
       </c>
       <c r="X17">
-        <v>0.002653777355091729</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>0.01410558832624784</v>
+        <v>120895.004</v>
       </c>
       <c r="Z17">
-        <v>0.001427270571962163</v>
+        <v>82204.962</v>
       </c>
       <c r="AA17">
-        <v>0.1682073344195489</v>
+        <v>1381538.94</v>
       </c>
       <c r="AB17">
-        <v>0.1294150295479134</v>
+        <v>190291.436</v>
       </c>
       <c r="AC17">
-        <v>0.1763212039441111</v>
+        <v>5615.947</v>
       </c>
       <c r="AD17">
-        <v>0.002459955931633122</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>0.04125067646760071</v>
+        <v>97944.552</v>
       </c>
       <c r="AF17">
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>0.001313517367097012</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>0.002204577449466463</v>
+        <v>127825.096</v>
       </c>
       <c r="AI17">
-        <v>0.04964941134886505</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0.004992467303649219</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>0.001318750037594053</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>0.01187129863189858</v>
+        <v>49477.211</v>
       </c>
       <c r="AM17">
-        <v>0.002486183872952539</v>
+        <v>62734.016</v>
       </c>
       <c r="AN17">
-        <v>0.0221167216324538</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>0.02501099953330603</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>40638.771</v>
       </c>
       <c r="AQ17">
-        <v>0.001634960802380695</v>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>0.009214754356144222</v>
+        <v>408269.242</v>
       </c>
       <c r="AS17">
-        <v>0.09499517670612699</v>
+        <v>3005.789</v>
       </c>
       <c r="AT17">
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>0.001128230200355247</v>
+        <v>17740.228</v>
       </c>
       <c r="AV17">
-        <v>0.003087961291066396</v>
+        <v>53487.896</v>
       </c>
       <c r="AW17">
-        <v>0.006776483130361315</v>
-      </c>
-      <c r="AX17">
-        <v>0.003346678894096134</v>
-      </c>
-      <c r="AY17">
-        <v>0.003262963884306058</v>
-      </c>
-      <c r="AZ17">
-        <v>0.05011367166450861</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0.005812258766447137</v>
-      </c>
-      <c r="BC17">
-        <v>0.01269543087057468</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.003414309507232518</v>
+        <v>341194.982</v>
       </c>
       <c r="D18">
-        <v>0.009573265307702491</v>
+        <v>327924.358</v>
       </c>
       <c r="E18">
-        <v>0.003886929397778058</v>
+        <v>20756.293</v>
       </c>
       <c r="F18">
-        <v>0.1262134477339681</v>
+        <v>18267.392</v>
       </c>
       <c r="G18">
-        <v>0.0009228530625916103</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.003564654375197626</v>
+        <v>1346769.58</v>
       </c>
       <c r="I18">
-        <v>0.00293775914510132</v>
+        <v>94759.613</v>
       </c>
       <c r="J18">
-        <v>0.004609424248260351</v>
+        <v>48089.431</v>
       </c>
       <c r="K18">
-        <v>0.008296453894579685</v>
+        <v>73429.785</v>
       </c>
       <c r="L18">
-        <v>0.001834514972473124</v>
+        <v>73377.751</v>
       </c>
       <c r="M18">
-        <v>0.003591765669755095</v>
+        <v>35323.264</v>
       </c>
       <c r="N18">
-        <v>0.03315951862178576</v>
+        <v>41227.553</v>
       </c>
       <c r="O18">
-        <v>0.003881363006032169</v>
+        <v>86911.614</v>
       </c>
       <c r="P18">
-        <v>0.002869768081714746</v>
+        <v>35391.459</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>11573.545</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>26675.521</v>
       </c>
       <c r="S18">
-        <v>0.00382335474429114</v>
+        <v>42320.107</v>
       </c>
       <c r="T18">
-        <v>0.3707486283781999</v>
+        <v>1593653.39</v>
       </c>
       <c r="U18">
-        <v>0.02969464979756378</v>
+        <v>63796.62</v>
       </c>
       <c r="V18">
-        <v>0.001026567503105631</v>
+        <v>63565.517</v>
       </c>
       <c r="W18">
-        <v>0.001568802386944852</v>
+        <v>68011.345</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>54385.398</v>
       </c>
       <c r="Y18">
-        <v>0.0111405712444453</v>
+        <v>146813.486</v>
       </c>
       <c r="Z18">
-        <v>0.001333705080917438</v>
+        <v>77408.47</v>
       </c>
       <c r="AA18">
-        <v>0.1837413674451136</v>
+        <v>1276499.59</v>
       </c>
       <c r="AB18">
-        <v>0.1802914244043864</v>
+        <v>187796.236</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.001874423863861996</v>
+        <v>57721.995</v>
       </c>
       <c r="AE18">
-        <v>0.04527611828589937</v>
+        <v>86795.901</v>
       </c>
       <c r="AF18">
-        <v>0.0002417293315194529</v>
+        <v>436744.674</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1349.098</v>
       </c>
       <c r="AH18">
-        <v>0.001529881692250722</v>
+        <v>7249.311</v>
       </c>
       <c r="AI18">
-        <v>0.02853405632752235</v>
+        <v>3160.122</v>
       </c>
       <c r="AJ18">
-        <v>0.005886618600092215</v>
+        <v>39167.955</v>
       </c>
       <c r="AK18">
-        <v>0.001673264802762956</v>
+        <v>468065.002</v>
       </c>
       <c r="AL18">
-        <v>0.007827904694968808</v>
+        <v>43299.627</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>56801.072</v>
       </c>
       <c r="AN18">
-        <v>0.02347558427696199</v>
+        <v>28834.359</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>62122.13</v>
       </c>
       <c r="AQ18">
-        <v>0.01099436884240228</v>
+        <v>78521.22</v>
       </c>
       <c r="AR18">
-        <v>0.01075575264688072</v>
+        <v>338571.251</v>
       </c>
       <c r="AS18">
-        <v>0.09985465979707517</v>
+        <v>7786.518</v>
       </c>
       <c r="AT18">
-        <v>0.001376533265878745</v>
+        <v>51111.157</v>
       </c>
       <c r="AU18">
-        <v>0.0008417255111916646</v>
+        <v>23054.995</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>54134.689</v>
       </c>
       <c r="AW18">
-        <v>0.007928939147378938</v>
-      </c>
-      <c r="AX18">
-        <v>0.001264440302933672</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>0.03958034313247089</v>
-      </c>
-      <c r="BA18">
-        <v>0.02980726783367679</v>
-      </c>
-      <c r="BB18">
-        <v>0.00552988034268112</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
+        <v>139648.466</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.001715992418552975</v>
+        <v>233130.118</v>
       </c>
       <c r="D19">
-        <v>0.01195162009072679</v>
+        <v>88185.92600000001</v>
       </c>
       <c r="E19">
-        <v>0.009378831722115556</v>
+        <v>43058.326</v>
       </c>
       <c r="F19">
-        <v>0.09243418925954902</v>
+        <v>8119.588</v>
       </c>
       <c r="G19">
-        <v>0.0007114673360550933</v>
+        <v>13901.048</v>
       </c>
       <c r="H19">
-        <v>0.002359501402693911</v>
+        <v>1692920.5</v>
       </c>
       <c r="I19">
-        <v>0.001383656763141012</v>
+        <v>128573.636</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>59315.546</v>
       </c>
       <c r="K19">
-        <v>0.006304063632845723</v>
+        <v>34216.753</v>
       </c>
       <c r="L19">
-        <v>0.002227942158314979</v>
+        <v>60672.553</v>
       </c>
       <c r="M19">
-        <v>0.004716615803732593</v>
+        <v>54264.603</v>
       </c>
       <c r="N19">
-        <v>0.02317446599999195</v>
+        <v>68630.637</v>
       </c>
       <c r="O19">
-        <v>0.003674278402803744</v>
+        <v>99966.36599999999</v>
       </c>
       <c r="P19">
-        <v>0.002261564068203447</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.000799091160108605</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>9447.929</v>
       </c>
       <c r="S19">
-        <v>0.002010517406438547</v>
+        <v>149257.965</v>
       </c>
       <c r="T19">
-        <v>0.2932222085249306</v>
+        <v>5564799.26</v>
       </c>
       <c r="U19">
-        <v>0.05130231713315513</v>
+        <v>70302.05899999999</v>
       </c>
       <c r="V19">
-        <v>0.0004318738514344089</v>
+        <v>78643.81600000001</v>
       </c>
       <c r="W19">
-        <v>0.0007576303425625295</v>
+        <v>37863.676</v>
       </c>
       <c r="X19">
-        <v>0.0009116108315459269</v>
+        <v>176743.876</v>
       </c>
       <c r="Y19">
-        <v>0.007137602051949746</v>
+        <v>127649.537</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.1556716746002322</v>
+        <v>1347685.84</v>
       </c>
       <c r="AB19">
-        <v>0.04899081423331364</v>
+        <v>49904.078</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>14850.196</v>
       </c>
       <c r="AD19">
-        <v>0.002775306483972971</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>0.05016811298022841</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>0.0007012484430867086</v>
+        <v>297086.523</v>
       </c>
       <c r="AG19">
-        <v>0.0006996528438130651</v>
+        <v>7657.226</v>
       </c>
       <c r="AH19">
-        <v>0.002222780914699684</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>0.03025318740520709</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0.004642485235512818</v>
+        <v>98535.21799999999</v>
       </c>
       <c r="AK19">
-        <v>0.001460277927278222</v>
+        <v>222777.912</v>
       </c>
       <c r="AL19">
-        <v>0.005316886152461128</v>
+        <v>67079.423</v>
       </c>
       <c r="AM19">
-        <v>0.0006781294849354006</v>
+        <v>0</v>
       </c>
       <c r="AN19">
-        <v>0.008623871098617064</v>
+        <v>67363.36500000001</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.0009570665286236664</v>
+        <v>39828.2</v>
       </c>
       <c r="AQ19">
-        <v>0.001092267358954791</v>
+        <v>66205.287</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>237912.699</v>
       </c>
       <c r="AS19">
-        <v>0.08820823488423991</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>0.0007012138772721283</v>
+        <v>34079.937</v>
       </c>
       <c r="AU19">
-        <v>0.000589626038286971</v>
+        <v>9225.138000000001</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>41954.967</v>
       </c>
       <c r="AW19">
-        <v>0.00515487143317236</v>
-      </c>
-      <c r="AX19">
-        <v>0.0008773143207746937</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0.01291765340437875</v>
-      </c>
-      <c r="BA19">
-        <v>0.03102283447582233</v>
-      </c>
-      <c r="BB19">
-        <v>0.003735724967977107</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
+        <v>361735.311</v>
       </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01287541664410366</v>
+        <v>383203.127</v>
       </c>
       <c r="E20">
-        <v>0.007034726292927672</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.1647188106313017</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.001848615437050291</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001830067847667088</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3826,142 +3466,124 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1362897908873767</v>
+        <v>16332.846</v>
       </c>
       <c r="L20">
-        <v>0.003307829355090607</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.00743091482847053</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.02542599388759633</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.003773629362319837</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.005229918569774964</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.0009767325055703507</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0.007425649114806999</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0.003723141091718982</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0.3430566336063802</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>0.02934127918494626</v>
+        <v>274.075</v>
       </c>
       <c r="V20">
-        <v>0.00114377374649242</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0.002184483650979349</v>
+        <v>345.827</v>
       </c>
       <c r="X20">
-        <v>0.002747252168980995</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.008795242982652161</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>0.0004876561495300538</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>711278.822</v>
       </c>
       <c r="AB20">
-        <v>0.1118986325884979</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.1612738292396379</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>0.002154105055246385</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>0.05761070592931736</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>0.0006907786708982984</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>0.001344631365344934</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>0.0009080881789330313</v>
+        <v>62992.117</v>
       </c>
       <c r="AI20">
-        <v>0.05463896904194139</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0.004576105139980313</v>
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>0.0006215011511489231</v>
+        <v>7500.567</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>78019.811</v>
       </c>
       <c r="AM20">
-        <v>0.001547530037717835</v>
+        <v>0</v>
       </c>
       <c r="AN20">
-        <v>0.01938281289259592</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>0.04419749389545574</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>71724.523</v>
       </c>
       <c r="AQ20">
-        <v>0.001539172232710391</v>
+        <v>0</v>
       </c>
       <c r="AR20">
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.1115289174349763</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>0.0005298382258773635</v>
+        <v>0</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>119886.412</v>
       </c>
       <c r="AV20">
-        <v>0.001034455187102106</v>
+        <v>170888.455</v>
       </c>
       <c r="AW20">
-        <v>0.005748129702379249</v>
-      </c>
-      <c r="AX20">
-        <v>0.002387927676985119</v>
-      </c>
-      <c r="AY20">
-        <v>0.00517232420674506</v>
-      </c>
-      <c r="AZ20">
-        <v>0.02182262192574695</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0.005478298257644912</v>
-      </c>
-      <c r="BC20">
-        <v>0.01413208355128048</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3969,213 +3591,195 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.001576107411287016</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01068027125165646</v>
+        <v>79232.58500000001</v>
       </c>
       <c r="E21">
-        <v>0.01259430249866075</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.0725401750230678</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0009252376157002621</v>
+        <v>61494.194</v>
       </c>
       <c r="H21">
-        <v>0.002770983446594945</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.002631108812690465</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.009341245144913541</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.002777468826089898</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.006346863072866239</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.01850277211135953</v>
+        <v>304668.783</v>
       </c>
       <c r="O21">
-        <v>0.003459038077718598</v>
+        <v>78819.936</v>
       </c>
       <c r="P21">
-        <v>0.003845819808554059</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.001109232670566702</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>27765.371</v>
       </c>
       <c r="S21">
-        <v>0.00301251253312717</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0.2434013077012705</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>0.01730566159338748</v>
+        <v>41230.605</v>
       </c>
       <c r="V21">
-        <v>0.0003788868998206823</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.0002549430969217133</v>
+        <v>180533.826</v>
       </c>
       <c r="X21">
-        <v>0.002268179522814674</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.006657782146804637</v>
+        <v>177776.58</v>
       </c>
       <c r="Z21">
-        <v>3.738419874529564E-06</v>
+        <v>76701.833</v>
       </c>
       <c r="AA21">
-        <v>0.1106243013818367</v>
+        <v>1050189.61</v>
       </c>
       <c r="AB21">
-        <v>0.08765490913783724</v>
+        <v>162674.847</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>0.002226155692963308</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>0.0323754616071235</v>
+        <v>39801.13</v>
       </c>
       <c r="AF21">
-        <v>0.0003038534307987988</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>0.0009498906270416842</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>76845.76700000001</v>
       </c>
       <c r="AI21">
-        <v>0.02821492730958106</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0.002372754638451713</v>
+        <v>210476.683</v>
       </c>
       <c r="AK21">
-        <v>0.003530043594572122</v>
+        <v>813080.919</v>
       </c>
       <c r="AL21">
-        <v>0.01852768987448372</v>
+        <v>243856.02</v>
       </c>
       <c r="AM21">
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>0.01116614233247563</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>27848.372</v>
       </c>
       <c r="AQ21">
-        <v>0.002094490362752769</v>
+        <v>110183.305</v>
       </c>
       <c r="AR21">
-        <v>0.01702969622968143</v>
+        <v>642011.405</v>
       </c>
       <c r="AS21">
         <v>0</v>
       </c>
       <c r="AT21">
-        <v>0.0006912471603205002</v>
+        <v>0</v>
       </c>
       <c r="AU21">
-        <v>0.0003590546571275218</v>
+        <v>20951.274</v>
       </c>
       <c r="AV21">
-        <v>0.0007907452288625586</v>
+        <v>142225.684</v>
       </c>
       <c r="AW21">
-        <v>0.006556573343690449</v>
-      </c>
-      <c r="AX21">
-        <v>0.004404081237109773</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21">
-        <v>0.01962059642492481</v>
-      </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21">
-        <v>0.009902536110852983</v>
-      </c>
-      <c r="BC21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:49">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0.001553571990884802</v>
+        <v>164325.92</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01132040082831116</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.0352214679151242</v>
+        <v>8367.85</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.001022868266636892</v>
+        <v>57297.412</v>
       </c>
       <c r="I22">
-        <v>0.003074973005347049</v>
+        <v>53678.624</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.0007442292989080944</v>
+        <v>35925.721</v>
       </c>
       <c r="L22">
-        <v>0.0005873480304733976</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>17188.475</v>
       </c>
       <c r="N22">
-        <v>0.006890190785290824</v>
+        <v>30011.159</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>74961.374</v>
       </c>
       <c r="P22">
-        <v>0.001188664204385015</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -4184,452 +3788,398 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>53412.29</v>
       </c>
       <c r="T22">
-        <v>0.2490109598839872</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>29424.441</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>54163.428</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>41690.195</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>105284.615</v>
       </c>
       <c r="Z22">
-        <v>2.023825059134154E-06</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.07888919139388195</v>
+        <v>1171234.15</v>
       </c>
       <c r="AB22">
-        <v>0.0556020486919121</v>
+        <v>84318.084</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>13073.755</v>
       </c>
       <c r="AD22">
-        <v>0.0005622343828791926</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.03828355487805623</v>
+        <v>66839.046</v>
       </c>
       <c r="AF22">
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2218.355</v>
       </c>
       <c r="AH22">
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0.02222547144994767</v>
+        <v>16803.235</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>45085.277</v>
       </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>28087.503</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>48151.199</v>
       </c>
       <c r="AN22">
-        <v>0.007275223721977925</v>
+        <v>14079.263</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.0008301090367026133</v>
+        <v>61910.531</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>78824.573</v>
       </c>
       <c r="AR22">
-        <v>0.003512667282610168</v>
+        <v>214749.091</v>
       </c>
       <c r="AS22">
-        <v>0.04765814976082335</v>
+        <v>8480.309999999999</v>
       </c>
       <c r="AT22">
         <v>0</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>4215.251</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>73123.10400000001</v>
       </c>
       <c r="AW22">
-        <v>0.02827999890685975</v>
-      </c>
-      <c r="AX22">
-        <v>0.0007374415211718561</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22">
-        <v>0.007848689530250271</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>0.009430530582326891</v>
-      </c>
-      <c r="BC22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:49">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>0.001617458261272503</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.006026267901124972</v>
+        <v>48798.001</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.03321804577816793</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.001145430436266267</v>
+        <v>63602.052</v>
       </c>
       <c r="H23">
-        <v>0.002341385067585561</v>
+        <v>20434.893</v>
       </c>
       <c r="I23">
-        <v>0.002421942112298163</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.005960919756884061</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.01717333851827329</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.001803770276324465</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.002911596379907232</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.03137733716292111</v>
+        <v>26746.736</v>
       </c>
       <c r="O23">
-        <v>0.005176567936682053</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.002702163573866441</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.0006049593144908032</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.002785417681007625</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.3339963919577689</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>22089.69</v>
       </c>
       <c r="V23">
-        <v>0.00149412683992263</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.001207733820144837</v>
+        <v>118075.671</v>
       </c>
       <c r="X23">
-        <v>0.0008825306608630295</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.009519857265736089</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.0004602829252856802</v>
+        <v>72402.14200000001</v>
       </c>
       <c r="AA23">
-        <v>0.2957816411022176</v>
+        <v>37293.877</v>
       </c>
       <c r="AB23">
-        <v>0.1394214596878243</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.001855752559486809</v>
+        <v>35755.464</v>
       </c>
       <c r="AD23">
-        <v>0.001283217279040132</v>
+        <v>102339.874</v>
       </c>
       <c r="AE23">
-        <v>0.05085031744873428</v>
+        <v>15945.535</v>
       </c>
       <c r="AF23">
-        <v>0.0004345146628869327</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>0.001461973112981846</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>0.002030242924905648</v>
+        <v>1357.108</v>
       </c>
       <c r="AI23">
-        <v>0.02671363962136718</v>
+        <v>14398.458</v>
       </c>
       <c r="AJ23">
-        <v>0.002546695890587203</v>
+        <v>47965.23</v>
       </c>
       <c r="AK23">
-        <v>0.002069966452460999</v>
+        <v>64812.138</v>
       </c>
       <c r="AL23">
-        <v>0.00403761910263536</v>
+        <v>0</v>
       </c>
       <c r="AM23">
-        <v>2.284431505117756E-05</v>
+        <v>96522.018</v>
       </c>
       <c r="AN23">
-        <v>0.02166391197103565</v>
+        <v>482014.545</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>4004.529</v>
       </c>
       <c r="AP23">
-        <v>0.0004808253838776864</v>
+        <v>131720.475</v>
       </c>
       <c r="AQ23">
-        <v>0.001618553509763848</v>
+        <v>19454.58</v>
       </c>
       <c r="AR23">
-        <v>0.009350111454933184</v>
+        <v>22765.999</v>
       </c>
       <c r="AS23">
-        <v>0.09847323265602932</v>
+        <v>31682.148</v>
       </c>
       <c r="AT23">
-        <v>0.0008820806564174232</v>
+        <v>0</v>
       </c>
       <c r="AU23">
-        <v>0.001381199838609515</v>
+        <v>38617.146</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>124334.284</v>
       </c>
       <c r="AW23">
         <v>0</v>
       </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23">
-        <v>0.02350808546829566</v>
-      </c>
-      <c r="BA23">
-        <v>0.05191259984976358</v>
-      </c>
-      <c r="BB23">
-        <v>0.00747751389193246</v>
-      </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:49">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>0.0137270943421387</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01579823387310869</v>
+        <v>76696.804</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.07784249829633819</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.001016496734524306</v>
+        <v>62410.729</v>
       </c>
       <c r="H24">
-        <v>0.003540701821816301</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.007207878451368974</v>
+        <v>1687.028</v>
       </c>
       <c r="K24">
-        <v>0.01022987614170413</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.001832349444108483</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.005039020504293275</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.01376010144546776</v>
+        <v>12451.946</v>
       </c>
       <c r="O24">
-        <v>0.003048394504279415</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.002926708718859043</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.001413111691370674</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0.003997412060705889</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0.3734759447913088</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0.04819431958880574</v>
+        <v>26014.069</v>
       </c>
       <c r="V24">
-        <v>0.0009168261689949782</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>76363.23299999999</v>
       </c>
       <c r="X24">
-        <v>0.001204415522712697</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>0.008939807871631374</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.001535735567260682</v>
+        <v>325669</v>
       </c>
       <c r="AA24">
-        <v>0.1975793454224822</v>
+        <v>185200.678</v>
       </c>
       <c r="AB24">
-        <v>0.0908687452142363</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>20570.596</v>
       </c>
       <c r="AD24">
-        <v>0.0007282619065012143</v>
+        <v>287785.957</v>
       </c>
       <c r="AE24">
-        <v>0.04759665919436042</v>
+        <v>350061.284</v>
       </c>
       <c r="AF24">
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0.001762124314675337</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>0.001900357393794778</v>
+        <v>71729.08900000001</v>
       </c>
       <c r="AI24">
-        <v>0.04412110782441016</v>
+        <v>19800.071</v>
       </c>
       <c r="AJ24">
-        <v>0.002202191010202425</v>
+        <v>26262.664</v>
       </c>
       <c r="AK24">
-        <v>0.00354799685880664</v>
+        <v>31001.075</v>
       </c>
       <c r="AL24">
-        <v>0.01284280528592877</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>351631.387</v>
       </c>
       <c r="AN24">
-        <v>0.02550632683941113</v>
+        <v>95535.28</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>13144.785</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>55919.434</v>
       </c>
       <c r="AQ24">
-        <v>0.003610937091838988</v>
+        <v>9029.540999999999</v>
       </c>
       <c r="AR24">
-        <v>0.008598378174935343</v>
+        <v>45190.265</v>
       </c>
       <c r="AS24">
-        <v>0.0923619676489091</v>
+        <v>64110.74</v>
       </c>
       <c r="AT24">
-        <v>0.0004578772660586667</v>
+        <v>0</v>
       </c>
       <c r="AU24">
-        <v>8.831413649107382E-05</v>
+        <v>0</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>121079.375</v>
       </c>
       <c r="AW24">
-        <v>0.004108391016378954</v>
-      </c>
-      <c r="AX24">
-        <v>0.001752591043324271</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="AZ24">
-        <v>0.0239844948797816</v>
-      </c>
-      <c r="BA24">
-        <v>0.03074577145535104</v>
-      </c>
-      <c r="BB24">
-        <v>0.007672986731204359</v>
-      </c>
-      <c r="BC24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:49">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4640,413 +4190,377 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01471225083836071</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.004070883776434648</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1000828712546357</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002287610368703138</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.003354046577008849</v>
+        <v>48995.402</v>
       </c>
       <c r="I25">
-        <v>0.002467408236830672</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.00552324547417446</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.05354555825344318</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.002077405531861548</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.01020327339396408</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.02868197074103656</v>
+        <v>10574.163</v>
       </c>
       <c r="O25">
-        <v>0.004343042563072164</v>
+        <v>102054.888</v>
       </c>
       <c r="P25">
-        <v>0.00316663261495098</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.001352550023338324</v>
+        <v>17764.705</v>
       </c>
       <c r="R25">
-        <v>0.001443753648799726</v>
+        <v>15383.217</v>
       </c>
       <c r="S25">
-        <v>0.004672246194927564</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0.3397846768935133</v>
+        <v>3333351.4</v>
       </c>
       <c r="U25">
-        <v>0.04465387871750635</v>
+        <v>78898.89200000001</v>
       </c>
       <c r="V25">
-        <v>0.0009705593302693974</v>
+        <v>44682.313</v>
       </c>
       <c r="W25">
-        <v>0.001888818460538808</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>0.003538041234195502</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0.01501560388981215</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>0.001357971617258159</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.15728651128409</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.1614601779136691</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>0.05187994131259094</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>0.002931013095555359</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>0.0473880859474554</v>
+        <v>40479.375</v>
       </c>
       <c r="AF25">
-        <v>0.000304203978532582</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>0.003777176713117456</v>
+        <v>0</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0.03453600739977672</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0.005297033601320346</v>
+        <v>31995.298</v>
       </c>
       <c r="AK25">
-        <v>0.002029267706005601</v>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>0.01455463902119018</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>0.0008669570360299546</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>0.02102952946152953</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>0.009235067750993232</v>
+        <v>1011.875</v>
       </c>
       <c r="AP25">
         <v>0</v>
       </c>
       <c r="AQ25">
-        <v>0.0057445869775358</v>
+        <v>0</v>
       </c>
       <c r="AR25">
-        <v>0.008187788788224628</v>
+        <v>0</v>
       </c>
       <c r="AS25">
-        <v>0.1010007412034719</v>
+        <v>0</v>
       </c>
       <c r="AT25">
-        <v>0.0007278601502793417</v>
+        <v>0</v>
       </c>
       <c r="AU25">
-        <v>0.001373557180395793</v>
+        <v>0</v>
       </c>
       <c r="AV25">
-        <v>0.001850494084329414</v>
+        <v>0</v>
       </c>
       <c r="AW25">
-        <v>0.006630534603046008</v>
-      </c>
-      <c r="AX25">
-        <v>0.00304705067018463</v>
-      </c>
-      <c r="AY25">
-        <v>0.000588976344109328</v>
-      </c>
-      <c r="AZ25">
-        <v>0.0387971468583529</v>
-      </c>
-      <c r="BA25">
-        <v>1.288025791948519E-05</v>
-      </c>
-      <c r="BB25">
-        <v>0.004859923101581285</v>
-      </c>
-      <c r="BC25">
-        <v>0.003250031523458121</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:49">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>54599.747</v>
       </c>
       <c r="D26">
-        <v>0.008927459114042224</v>
+        <v>47451.528</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.07575916974581579</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.002050598846207538</v>
+        <v>31565.26</v>
       </c>
       <c r="H26">
-        <v>0.002711884735522579</v>
+        <v>7639.674</v>
       </c>
       <c r="I26">
-        <v>0.001554372360240793</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.1616982895111167</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.001694824595095876</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0.004019467163564487</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0.02471572604184373</v>
+        <v>15341.825</v>
       </c>
       <c r="O26">
-        <v>0.002975414132325903</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0.003170820355873584</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0.009635081870056898</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>0.004262926165577273</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0.2873058815900453</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0.0176795907686642</v>
+        <v>19772.897</v>
       </c>
       <c r="V26">
-        <v>0.0006322918702801673</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>72589.189</v>
       </c>
       <c r="X26">
-        <v>0.001716740000321082</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.00931262753075301</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>251879.72</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>160626.268</v>
       </c>
       <c r="AB26">
-        <v>0.05861939494670472</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.2455970690625405</v>
+        <v>22548.496</v>
       </c>
       <c r="AD26">
-        <v>0.002223444039383446</v>
+        <v>172849.039</v>
       </c>
       <c r="AE26">
-        <v>0.03986940421063807</v>
+        <v>313532.068</v>
       </c>
       <c r="AF26">
-        <v>0.0004959694748335806</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>0.0007140519224609241</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>0.0009363211473478037</v>
+        <v>86715.762</v>
       </c>
       <c r="AI26">
-        <v>0.02566346401912844</v>
+        <v>20930.198</v>
       </c>
       <c r="AJ26">
-        <v>0.002514911139464339</v>
+        <v>0</v>
       </c>
       <c r="AK26">
-        <v>0.001998320804713214</v>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>0.01157584437249507</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>0.0005562777303331857</v>
+        <v>290300.278</v>
       </c>
       <c r="AN26">
-        <v>0.01788483847570307</v>
+        <v>127720.523</v>
       </c>
       <c r="AO26">
-        <v>0.03270765448252336</v>
+        <v>16961.275</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>79454.66499999999</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>6529.086</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>44366.039</v>
       </c>
       <c r="AS26">
-        <v>0.1068536590556803</v>
+        <v>50673.437</v>
       </c>
       <c r="AT26">
-        <v>0.0004088280708263984</v>
+        <v>0</v>
       </c>
       <c r="AU26">
-        <v>0.0005757316938058742</v>
+        <v>0</v>
       </c>
       <c r="AV26">
-        <v>0.001516313031336892</v>
+        <v>96806.427</v>
       </c>
       <c r="AW26">
-        <v>0.003655407071220482</v>
-      </c>
-      <c r="AX26">
-        <v>0.003353213973948578</v>
-      </c>
-      <c r="AY26">
-        <v>0.006440595401839227</v>
-      </c>
-      <c r="AZ26">
-        <v>0.0303787351828986</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>0.007115128962963365</v>
-      </c>
-      <c r="BC26">
-        <v>0.0240992428604642</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:49">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>451971.355</v>
       </c>
       <c r="D27">
-        <v>0.01191088730499779</v>
+        <v>466289.535</v>
       </c>
       <c r="E27">
-        <v>0.008036814382912736</v>
+        <v>46383.765</v>
       </c>
       <c r="F27">
-        <v>0.1957882776630882</v>
+        <v>31116.689</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>23586.73</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2453680.98</v>
       </c>
       <c r="I27">
-        <v>0.002941977766853628</v>
+        <v>172713.869</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>61684.839</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>60993.163</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>146206.971</v>
       </c>
       <c r="M27">
-        <v>0.004651174245941731</v>
+        <v>40367.363</v>
       </c>
       <c r="N27">
-        <v>0.01461428098196631</v>
+        <v>138522.086</v>
       </c>
       <c r="O27">
-        <v>0.002896799856091088</v>
+        <v>141313.907</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>15036.549</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>21978.354</v>
       </c>
       <c r="S27">
-        <v>0.002890797300565404</v>
+        <v>95567.886</v>
       </c>
       <c r="T27">
-        <v>0.2821981210841623</v>
+        <v>3726797.97</v>
       </c>
       <c r="U27">
-        <v>0.03504860365096299</v>
+        <v>191490.934</v>
       </c>
       <c r="V27">
-        <v>0.0004621489797227446</v>
+        <v>57021.118</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>74138.08199999999</v>
       </c>
       <c r="X27">
-        <v>0.001006079288243094</v>
+        <v>188166.739</v>
       </c>
       <c r="Y27">
-        <v>0.009135894273241088</v>
+        <v>330005.723</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>2478620.44</v>
       </c>
       <c r="AB27">
-        <v>0.1106808291434113</v>
+        <v>173638.14</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -5055,82 +4569,64 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0.03870383689308067</v>
+        <v>116837.593</v>
       </c>
       <c r="AF27">
-        <v>0.0005707196648859938</v>
+        <v>496320.338</v>
       </c>
       <c r="AG27">
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0.001518962147802074</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3850.082</v>
       </c>
       <c r="AJ27">
-        <v>0.00367198023406721</v>
+        <v>84515.046</v>
       </c>
       <c r="AK27">
-        <v>0.001188482753194209</v>
+        <v>819019.453</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>85538.851</v>
       </c>
       <c r="AM27">
-        <v>0.0006839078962860762</v>
+        <v>55468.755</v>
       </c>
       <c r="AN27">
-        <v>0.01583622372001744</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>89328.781</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>109458.648</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>739435.557</v>
       </c>
       <c r="AS27">
-        <v>0.05148448309503732</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>0.0004508688530770681</v>
+        <v>97732.428</v>
       </c>
       <c r="AU27">
-        <v>0.000498759624607345</v>
+        <v>0</v>
       </c>
       <c r="AV27">
-        <v>0.001402877756450578</v>
+        <v>107968.097</v>
       </c>
       <c r="AW27">
-        <v>0.003359093044311385</v>
-      </c>
-      <c r="AX27">
-        <v>0.0005213016465282783</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27">
-        <v>0.01559416211940975</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0.004383197409269047</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
+        <v>365692.513</v>
       </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:49">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5138,46 +4634,46 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0.003169677803893538</v>
+        <v>29173.582</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.004164393505297859</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.05036852304355391</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>36605.755</v>
       </c>
       <c r="H28">
-        <v>0.00245271167742799</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0.005199277166063307</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.01243510799170493</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0.000900900888250847</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>41846.159</v>
       </c>
       <c r="N28">
-        <v>0.03628830433059093</v>
+        <v>30906.017</v>
       </c>
       <c r="O28">
-        <v>0.002432597716151648</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>0.0009717540974741537</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -5189,16 +4685,16 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0.311488318154134</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>29484.028</v>
       </c>
       <c r="V28">
-        <v>0.0007420381911604906</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>97536.12</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -5207,22 +4703,22 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.0001672334010225541</v>
+        <v>49903.322</v>
       </c>
       <c r="AA28">
-        <v>0.249566934368068</v>
+        <v>58413.517</v>
       </c>
       <c r="AB28">
-        <v>0.06399240073477774</v>
+        <v>0</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.001147318728452145</v>
+        <v>111954.842</v>
       </c>
       <c r="AE28">
-        <v>0.02985667160372876</v>
+        <v>43155.852</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -5231,436 +4727,382 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2530.982</v>
       </c>
       <c r="AI28">
-        <v>0.02526069449582238</v>
+        <v>4196.992</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>60245.989</v>
       </c>
       <c r="AK28">
-        <v>0.001682311899628968</v>
+        <v>34782.97</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>73574.88099999999</v>
       </c>
       <c r="AN28">
-        <v>0.01148307110980239</v>
+        <v>308611.052</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.000760614744920893</v>
+        <v>91933.73299999999</v>
       </c>
       <c r="AQ28">
-        <v>0.001322131921059461</v>
+        <v>16017.739</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>15000.066</v>
       </c>
       <c r="AS28">
-        <v>0.05461960727634821</v>
+        <v>29216.752</v>
       </c>
       <c r="AT28">
-        <v>0.001011739086714324</v>
+        <v>0</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>17996.844</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>141995.877</v>
       </c>
       <c r="AW28">
-        <v>0.01965173827386276</v>
-      </c>
-      <c r="AX28">
-        <v>0.003084100371494854</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>0.01155253449116879</v>
-      </c>
-      <c r="BA28">
-        <v>0.004562929222328064</v>
-      </c>
-      <c r="BB28">
-        <v>0.01101935382745485</v>
-      </c>
-      <c r="BC28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="1:49">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>163809.023</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>261968.978</v>
       </c>
       <c r="E29">
-        <v>0.009452923427273984</v>
+        <v>26027.499</v>
       </c>
       <c r="F29">
-        <v>0.08690247472301373</v>
+        <v>10274.979</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>23456.417</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0.005748186389782013</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>55869.053</v>
       </c>
       <c r="K29">
-        <v>0.0009991153690613562</v>
+        <v>42244.362</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>56015.75</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>29095.233</v>
       </c>
       <c r="N29">
-        <v>0.006858796898821036</v>
+        <v>80465.273</v>
       </c>
       <c r="O29">
-        <v>0.0006475729519208871</v>
+        <v>63379.273</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>30490.373</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>14628.298</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>11531.324</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>87709.72</v>
       </c>
       <c r="T29">
-        <v>0.2701289645809897</v>
+        <v>3751897.17</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>130403.347</v>
       </c>
       <c r="V29">
-        <v>0.0004187503338758921</v>
+        <v>80668.74000000001</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>59700.511</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>202766.163</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>133843.033</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>19850.365</v>
       </c>
       <c r="AA29">
-        <v>0.268757126075476</v>
+        <v>1229691.57</v>
       </c>
       <c r="AB29">
-        <v>0.03857526907631577</v>
+        <v>33153.141</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>10788.201</v>
       </c>
       <c r="AD29">
-        <v>0.001145688016245012</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>0.04271534980179147</v>
+        <v>25541.914</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>226680.048</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>5995.586</v>
       </c>
       <c r="AH29">
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0.02338332563702812</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>79293.338</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>494120.936</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>120844.725</v>
       </c>
       <c r="AM29">
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>0.01074032991832062</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>60777.713</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>61267.137</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>310356.955</v>
       </c>
       <c r="AS29">
-        <v>0.03249038763541921</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>32580.802</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>5153.126</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>42266.464</v>
       </c>
       <c r="AW29">
-        <v>0.02841851504335547</v>
-      </c>
-      <c r="AX29">
-        <v>0.0004116737865705363</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>0.002894483301054446</v>
-      </c>
-      <c r="BA29">
-        <v>3.851760154469158E-07</v>
-      </c>
-      <c r="BB29">
-        <v>0.006994497702389511</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
+        <v>382729.514</v>
       </c>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30" spans="1:49">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>36358.929</v>
       </c>
       <c r="D30">
-        <v>0.01195730895937349</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.008747373308861878</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.1538554631429476</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.001927630488882672</v>
+        <v>33009.815</v>
       </c>
       <c r="H30">
-        <v>0.00369648012764519</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.002726467427238073</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.007559134123558351</v>
+        <v>1054.05</v>
       </c>
       <c r="K30">
-        <v>0.09501504151254349</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.002210564611008183</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.006685225868670231</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0.03054324232678331</v>
+        <v>24755.982</v>
       </c>
       <c r="O30">
-        <v>0.006177198474322816</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0.006057192773662178</v>
+        <v>17874.968</v>
       </c>
       <c r="Q30">
-        <v>0.001235876069964833</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0.006051113039292327</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>0.006505286116014555</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>0.4063604240354716</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>0.03542035570347694</v>
+        <v>25579.993</v>
       </c>
       <c r="V30">
-        <v>0.001092847184767686</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0.0008562221903942437</v>
+        <v>86600.31299999999</v>
       </c>
       <c r="X30">
-        <v>0.002840332850993811</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>0.01460276252468572</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.0009819417202044864</v>
+        <v>50175.021</v>
       </c>
       <c r="AA30">
-        <v>0.2425569223997718</v>
+        <v>21266.248</v>
       </c>
       <c r="AB30">
-        <v>0.1732498066096632</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.1308422212399315</v>
+        <v>21110.174</v>
       </c>
       <c r="AD30">
-        <v>0.002518681981551179</v>
+        <v>86730.548</v>
       </c>
       <c r="AE30">
-        <v>0.05462594069403501</v>
+        <v>28424.233</v>
       </c>
       <c r="AF30">
-        <v>0.0004663523186131101</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>0.001090126439935016</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>0.000975481199789274</v>
+        <v>13535.707</v>
       </c>
       <c r="AI30">
-        <v>0.04785025286257362</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0.00629135764148935</v>
+        <v>51797.371</v>
       </c>
       <c r="AK30">
-        <v>0.00279712953490508</v>
+        <v>63155.776</v>
       </c>
       <c r="AL30">
-        <v>0.01352157579139915</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>0.0009482085204483701</v>
+        <v>75034.30899999999</v>
       </c>
       <c r="AN30">
-        <v>0.02907416293490991</v>
+        <v>183853.107</v>
       </c>
       <c r="AO30">
-        <v>0.02687113240411774</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>91554.898</v>
       </c>
       <c r="AQ30">
-        <v>0.008810403489791582</v>
+        <v>12919.574</v>
       </c>
       <c r="AR30">
-        <v>0.01640263042800889</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.1428349330072541</v>
+        <v>20283.348</v>
       </c>
       <c r="AT30">
-        <v>0.00112917861735794</v>
+        <v>0</v>
       </c>
       <c r="AU30">
-        <v>0.001088755569402333</v>
+        <v>14846.896</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>99250.802</v>
       </c>
       <c r="AW30">
-        <v>0.009286324892416655</v>
-      </c>
-      <c r="AX30">
-        <v>0.001638088261172334</v>
-      </c>
-      <c r="AY30">
-        <v>0.001602268993966968</v>
-      </c>
-      <c r="AZ30">
-        <v>0.06609624631685945</v>
-      </c>
-      <c r="BA30">
-        <v>0.02571992700596511</v>
-      </c>
-      <c r="BB30">
-        <v>0.004930373072855049</v>
-      </c>
-      <c r="BC30">
-        <v>0.004591667656674711</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="1:49">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>89818.837</v>
       </c>
       <c r="D31">
-        <v>0.01130118955155021</v>
+        <v>37905.5</v>
       </c>
       <c r="E31">
-        <v>0.01932456917089383</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.1312943972596665</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.0008838080515292706</v>
+        <v>86713.628</v>
       </c>
       <c r="H31">
-        <v>0.0009982198026577845</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0.002592453131381072</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>3642.201</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -5669,231 +5111,213 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.005147214064459826</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>0.0185707634628178</v>
+        <v>15477.559</v>
       </c>
       <c r="O31">
-        <v>0.003706773668936442</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0.002156299947481899</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0.01006583124059106</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>0.004728636193112076</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>0.3747442642453881</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0.03384093096879236</v>
+        <v>23530.746</v>
       </c>
       <c r="V31">
-        <v>0.0008308097312090767</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>0.0007142940264249256</v>
+        <v>78656.215</v>
       </c>
       <c r="X31">
-        <v>0.003127434750139731</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>0.01433734970356363</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>337738.42</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>146051.714</v>
       </c>
       <c r="AB31">
-        <v>0.1803181334245165</v>
+        <v>4071.105</v>
       </c>
       <c r="AC31">
-        <v>0.4551141661020995</v>
+        <v>18800.623</v>
       </c>
       <c r="AD31">
-        <v>0.0005299463535004723</v>
+        <v>234559.974</v>
       </c>
       <c r="AE31">
-        <v>0.04854833534970832</v>
+        <v>407715.507</v>
       </c>
       <c r="AF31">
-        <v>0.0002785467760205577</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>0.001680040440411484</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>0.001039507780746398</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>16222.114</v>
       </c>
       <c r="AJ31">
-        <v>0.004780001977772766</v>
+        <v>24051.787</v>
       </c>
       <c r="AK31">
-        <v>0.002763004229134617</v>
+        <v>43046.578</v>
       </c>
       <c r="AL31">
-        <v>0.0005486120182057616</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>332401.084</v>
       </c>
       <c r="AN31">
-        <v>0.01839328802450516</v>
+        <v>140084.221</v>
       </c>
       <c r="AO31">
-        <v>0.0383713496838291</v>
+        <v>19928.372</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>80351.734</v>
       </c>
       <c r="AQ31">
-        <v>0.001726179435250958</v>
+        <v>11122.878</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>60181.043</v>
       </c>
       <c r="AS31">
-        <v>0.04419600185339446</v>
+        <v>33599.28</v>
       </c>
       <c r="AT31">
-        <v>0.00114760192047688</v>
+        <v>0</v>
       </c>
       <c r="AU31">
-        <v>0.001070726049808798</v>
+        <v>0</v>
       </c>
       <c r="AV31">
-        <v>0.001703002733365334</v>
+        <v>69201.882</v>
       </c>
       <c r="AW31">
-        <v>0.001602353054821005</v>
-      </c>
-      <c r="AX31">
-        <v>0.002907078112250913</v>
-      </c>
-      <c r="AY31">
-        <v>0.004587726455380837</v>
-      </c>
-      <c r="AZ31">
-        <v>0.03118139624185433</v>
-      </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BB31">
-        <v>0.005715578226785418</v>
-      </c>
-      <c r="BC31">
-        <v>0.04771779295486846</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="1:49">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>354453.837</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>240405.771</v>
       </c>
       <c r="E32">
-        <v>0.03598070059866832</v>
+        <v>10420.495</v>
       </c>
       <c r="F32">
-        <v>0.04127416740706676</v>
+        <v>25818.16</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>17803.839</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1004949.05</v>
       </c>
       <c r="I32">
-        <v>0.00328336080431637</v>
+        <v>131415.92</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>67371.647</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>46072.695</v>
       </c>
       <c r="L32">
-        <v>0.0006791274317023839</v>
+        <v>35716.365</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0.001744368669178098</v>
+        <v>36723.074</v>
       </c>
       <c r="O32">
-        <v>0.0006995266865012887</v>
+        <v>146405.973</v>
       </c>
       <c r="P32">
-        <v>0.0008516307460891027</v>
+        <v>58383.518</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>47008.944</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>29222.812</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>154789.669</v>
       </c>
       <c r="T32">
-        <v>0.2277994880803288</v>
+        <v>1702294.09</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>112403.341</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>31435.629</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>50400.014</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>58408.589</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>377047.628</v>
       </c>
       <c r="Z32">
-        <v>7.740499364012689E-06</v>
+        <v>30794.782</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1882644.84</v>
       </c>
       <c r="AB32">
-        <v>0.03843176703019387</v>
+        <v>210418.155</v>
       </c>
       <c r="AC32">
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0.0001020074391615408</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>0.01955635768671929</v>
+        <v>56551.998</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>211426.254</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -5902,70 +5326,52 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0.007942225665759793</v>
+        <v>2649.822</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>71642.592</v>
       </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>74392.734</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>48309.34</v>
       </c>
       <c r="AN32">
-        <v>0.01176016703495195</v>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>2875.776</v>
       </c>
       <c r="AP32">
-        <v>0.006817245414157787</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>111509.984</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>265538.088</v>
       </c>
       <c r="AS32">
-        <v>0.0154655829536591</v>
+        <v>0</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>24332.965</v>
       </c>
       <c r="AU32">
         <v>0</v>
       </c>
       <c r="AV32">
-        <v>0</v>
+        <v>58521.636</v>
       </c>
       <c r="AW32">
-        <v>0.005270578074682867</v>
-      </c>
-      <c r="AX32">
-        <v>0.0003198823176924117</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32">
-        <v>0.001502904619365391</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0.008659097439221606</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
+        <v>90901.81299999999</v>
       </c>
     </row>
-    <row r="33" spans="1:55">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5973,43 +5379,43 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>76861.302</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.02106932277952394</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.05141620983178529</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>63615.145</v>
       </c>
       <c r="H33">
-        <v>0.0008329006109564489</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.002824525437906493</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2235.439</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1.19745680073723E-05</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0.003705371080272626</v>
+        <v>15998.084</v>
       </c>
       <c r="O33">
-        <v>0.001804342783932544</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -6024,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0.2335026031461231</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -6033,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>74818.318</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -6042,22 +5448,22 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>252243.653</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>138657.155</v>
       </c>
       <c r="AB33">
-        <v>0.02796669108144432</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>21450.383</v>
       </c>
       <c r="AD33">
-        <v>0.0003985433918808606</v>
+        <v>198318.974</v>
       </c>
       <c r="AE33">
-        <v>0.02049038493959975</v>
+        <v>338126.468</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -6066,40 +5472,40 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>149916.875</v>
       </c>
       <c r="AI33">
-        <v>0.008561429781679385</v>
+        <v>17992.328</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>24791.305</v>
       </c>
       <c r="AK33">
-        <v>0.0007878834420574917</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>304972.336</v>
       </c>
       <c r="AN33">
-        <v>0.007745751746130616</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>14613.548</v>
       </c>
       <c r="AP33">
-        <v>0.003943614211883084</v>
+        <v>73202.537</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>11669.441</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>61843.295</v>
       </c>
       <c r="AS33">
-        <v>0.0173313040839492</v>
+        <v>59028.941</v>
       </c>
       <c r="AT33">
         <v>0</v>
@@ -6108,31 +5514,13 @@
         <v>0</v>
       </c>
       <c r="AV33">
-        <v>0</v>
+        <v>115973.723</v>
       </c>
       <c r="AW33">
-        <v>0.005677088834131221</v>
-      </c>
-      <c r="AX33">
-        <v>0.0006924350470470942</v>
-      </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
-      <c r="AZ33">
-        <v>0.001735039518270803</v>
-      </c>
-      <c r="BA33">
-        <v>0</v>
-      </c>
-      <c r="BB33">
-        <v>0.0109565003280042</v>
-      </c>
-      <c r="BC33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:55">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -6140,166 +5528,148 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>0.01413894475327435</v>
+        <v>192975.162</v>
       </c>
       <c r="D34">
-        <v>0.01017680047290743</v>
+        <v>265575.658</v>
       </c>
       <c r="E34">
-        <v>0.004495754918934466</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>7548.227</v>
       </c>
       <c r="G34">
-        <v>0.002555005864607613</v>
+        <v>24128.589</v>
       </c>
       <c r="H34">
-        <v>0.003068094419256235</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0.003057526315633507</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>46004.777</v>
       </c>
       <c r="K34">
-        <v>0.1420073473131153</v>
+        <v>64943.181</v>
       </c>
       <c r="L34">
-        <v>0.002740851533813033</v>
+        <v>48290.107</v>
       </c>
       <c r="M34">
-        <v>0.004488791775640074</v>
+        <v>30951.019</v>
       </c>
       <c r="N34">
-        <v>0.02343270765159764</v>
+        <v>89292.47199999999</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>94996.55</v>
       </c>
       <c r="P34">
-        <v>0.002352109915030172</v>
+        <v>98977.94100000001</v>
       </c>
       <c r="Q34">
-        <v>0.001033007831483025</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>0.008412820356463629</v>
+        <v>10699.29</v>
       </c>
       <c r="S34">
-        <v>0.004205239927119833</v>
+        <v>104958.844</v>
       </c>
       <c r="T34">
-        <v>0.2689091204109237</v>
+        <v>2079276.94</v>
       </c>
       <c r="U34">
-        <v>0.01844323509744425</v>
+        <v>142447.304</v>
       </c>
       <c r="V34">
-        <v>0.0006293701458443772</v>
+        <v>62416.621</v>
       </c>
       <c r="W34">
-        <v>0.002247946735324978</v>
+        <v>57520.086</v>
       </c>
       <c r="X34">
-        <v>0.001369806289516641</v>
+        <v>94635.274</v>
       </c>
       <c r="Y34">
-        <v>0.007719198671307589</v>
+        <v>74759.39599999999</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>23054.944</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1154892.57</v>
       </c>
       <c r="AB34">
-        <v>0.07803436634805562</v>
+        <v>61178.627</v>
       </c>
       <c r="AC34">
-        <v>0.2268896351419431</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>0.002289623745275695</v>
+        <v>24360.628</v>
       </c>
       <c r="AE34">
-        <v>0.05292442233507175</v>
+        <v>24114.678</v>
       </c>
       <c r="AF34">
-        <v>0.0006496674408443628</v>
+        <v>266799.121</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1404.217</v>
       </c>
       <c r="AH34">
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0.0398163967563871</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>0.003852189148505707</v>
+        <v>91198.152</v>
       </c>
       <c r="AK34">
-        <v>0.002013178414509415</v>
+        <v>440051.303</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>87857.74000000001</v>
       </c>
       <c r="AM34">
-        <v>0.00113465378400326</v>
+        <v>27085.188</v>
       </c>
       <c r="AN34">
-        <v>0.02691335161536053</v>
+        <v>18304.4</v>
       </c>
       <c r="AO34">
-        <v>0.03053046076299689</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>58345.972</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>60317.377</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>382683.983</v>
       </c>
       <c r="AS34">
-        <v>0.1301164630792296</v>
+        <v>2029.458</v>
       </c>
       <c r="AT34">
-        <v>0.0003921635600604698</v>
+        <v>33983.852</v>
       </c>
       <c r="AU34">
-        <v>0.0005572123306758903</v>
+        <v>0</v>
       </c>
       <c r="AV34">
-        <v>0.003514308760969895</v>
+        <v>49847.797</v>
       </c>
       <c r="AW34">
-        <v>0.004612458622849271</v>
-      </c>
-      <c r="AX34">
-        <v>0.0002999955257768351</v>
-      </c>
-      <c r="AY34">
-        <v>0.003109082267252206</v>
-      </c>
-      <c r="AZ34">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>0</v>
-      </c>
-      <c r="BB34">
-        <v>0.008854850354628074</v>
-      </c>
-      <c r="BC34">
-        <v>0.01773986967093728</v>
+        <v>219956.387</v>
       </c>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -6307,330 +5677,294 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>443453.1</v>
       </c>
       <c r="D35">
-        <v>0.01458306466574197</v>
+        <v>111214.801</v>
       </c>
       <c r="E35">
-        <v>0.003210540205160554</v>
+        <v>14114.54</v>
       </c>
       <c r="F35">
-        <v>0.06889848016979352</v>
+        <v>26137.836</v>
       </c>
       <c r="G35">
-        <v>0.001818003159448765</v>
+        <v>20533.173</v>
       </c>
       <c r="H35">
-        <v>0.002871000006296835</v>
+        <v>1029024.56</v>
       </c>
       <c r="I35">
-        <v>0.001428173831510309</v>
+        <v>64711.024</v>
       </c>
       <c r="J35">
-        <v>0.005417468206304711</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0.07157325117620203</v>
+        <v>69989.769</v>
       </c>
       <c r="L35">
-        <v>0.001530478431443301</v>
+        <v>42511.019</v>
       </c>
       <c r="M35">
-        <v>0.004868100831724909</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>0.01892540143006825</v>
+        <v>24646.509</v>
       </c>
       <c r="O35">
-        <v>0.002760216995483762</v>
+        <v>142911.146</v>
       </c>
       <c r="P35">
-        <v>0.002744554790952311</v>
+        <v>26033.095</v>
       </c>
       <c r="Q35">
-        <v>0.001192896677607725</v>
+        <v>42150.419</v>
       </c>
       <c r="R35">
-        <v>0.002956831118436373</v>
+        <v>37063.844</v>
       </c>
       <c r="S35">
-        <v>0.003233256762486843</v>
+        <v>144824.681</v>
       </c>
       <c r="T35">
-        <v>0.3234909967752013</v>
+        <v>1784774.83</v>
       </c>
       <c r="U35">
-        <v>0.03841764871495254</v>
+        <v>46693.626</v>
       </c>
       <c r="V35">
-        <v>0.00106580043248505</v>
+        <v>59287.488</v>
       </c>
       <c r="W35">
-        <v>0.001902404927363836</v>
+        <v>52884.913</v>
       </c>
       <c r="X35">
-        <v>0.002124702314173451</v>
+        <v>40059.225</v>
       </c>
       <c r="Y35">
-        <v>0.009940108085016825</v>
+        <v>245228.34</v>
       </c>
       <c r="Z35">
-        <v>0.0009371419245582007</v>
+        <v>16128.549</v>
       </c>
       <c r="AA35">
-        <v>0.1670879680330168</v>
+        <v>1537937.42</v>
       </c>
       <c r="AB35">
-        <v>0.112853960185891</v>
+        <v>81322.09600000001</v>
       </c>
       <c r="AC35">
-        <v>0.1241390557291978</v>
+        <v>11245.527</v>
       </c>
       <c r="AD35">
-        <v>0.001011650752469444</v>
+        <v>49391.557</v>
       </c>
       <c r="AE35">
-        <v>0.03987978188726567</v>
+        <v>32726.163</v>
       </c>
       <c r="AF35">
-        <v>0.0003569151820583084</v>
+        <v>369300.468</v>
       </c>
       <c r="AG35">
-        <v>0.0007141854396526707</v>
+        <v>7059.97</v>
       </c>
       <c r="AH35">
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0.04416038127515556</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0.003709213643688179</v>
+        <v>48623.224</v>
       </c>
       <c r="AK35">
-        <v>0.002999475168657957</v>
+        <v>0</v>
       </c>
       <c r="AL35">
-        <v>0.01175912708740468</v>
+        <v>21391.194</v>
       </c>
       <c r="AM35">
-        <v>0.001166920659013944</v>
+        <v>38572.509</v>
       </c>
       <c r="AN35">
-        <v>0.02208027052087908</v>
+        <v>74264.883</v>
       </c>
       <c r="AO35">
-        <v>0.02568649591381275</v>
+        <v>185.672</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>68532.753</v>
       </c>
       <c r="AQ35">
-        <v>0.004816278791829586</v>
+        <v>100676.913</v>
       </c>
       <c r="AR35">
-        <v>0.0189189704243751</v>
+        <v>162985.226</v>
       </c>
       <c r="AS35">
-        <v>0.07985454679342083</v>
+        <v>10960.023</v>
       </c>
       <c r="AT35">
-        <v>0.0003382206811370829</v>
+        <v>19278.348</v>
       </c>
       <c r="AU35">
-        <v>0.0008188095418337185</v>
+        <v>55056.242</v>
       </c>
       <c r="AV35">
-        <v>0.0009386855467661619</v>
+        <v>101821.372</v>
       </c>
       <c r="AW35">
-        <v>0.002682890168484718</v>
-      </c>
-      <c r="AX35">
-        <v>0.0009889990199031169</v>
-      </c>
-      <c r="AY35">
-        <v>0.001340895151876873</v>
-      </c>
-      <c r="AZ35">
-        <v>0.02126336412827504</v>
-      </c>
-      <c r="BA35">
-        <v>0.01151327299490443</v>
-      </c>
-      <c r="BB35">
-        <v>0.007082130900025851</v>
-      </c>
-      <c r="BC35">
-        <v>0.01701077557480798</v>
+        <v>244567.706</v>
       </c>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>165010.737</v>
       </c>
       <c r="D36">
-        <v>0.01587978634619044</v>
+        <v>100387.206</v>
       </c>
       <c r="E36">
-        <v>0.007023105171228278</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.1924831234150742</v>
+        <v>6895.297</v>
       </c>
       <c r="G36">
-        <v>0.0005373088466800726</v>
+        <v>13409.926</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>61096.819</v>
       </c>
       <c r="I36">
-        <v>0.003146964397280188</v>
+        <v>92074.875</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>42658.881</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>45711.82</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.007624944406122127</v>
+        <v>11394.557</v>
       </c>
       <c r="N36">
-        <v>0.01476703696840144</v>
+        <v>24715.968</v>
       </c>
       <c r="O36">
-        <v>0.002911778193656901</v>
+        <v>69175.18700000001</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0.0008565592608605827</v>
+        <v>11352.363</v>
       </c>
       <c r="R36">
-        <v>0.007297560989909932</v>
+        <v>7277.408</v>
       </c>
       <c r="S36">
-        <v>0.003720093076391928</v>
+        <v>76123.74400000001</v>
       </c>
       <c r="T36">
-        <v>0.3582675773331432</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>0.04827607711899939</v>
+        <v>31799.221</v>
       </c>
       <c r="V36">
-        <v>0.0004772872534837763</v>
+        <v>56274.517</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>49669.216</v>
       </c>
       <c r="X36">
-        <v>0.002768967246190404</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>0.009754741878778903</v>
+        <v>58278.116</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>34795.278</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1049028.81</v>
       </c>
       <c r="AB36">
-        <v>0.1151093940396848</v>
+        <v>98314.883</v>
       </c>
       <c r="AC36">
-        <v>0.2178463133431236</v>
+        <v>13295.742</v>
       </c>
       <c r="AD36">
-        <v>0.0005528700153654513</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>0.04363016844769314</v>
+        <v>63858.117</v>
       </c>
       <c r="AF36">
-        <v>0.0002198940606791017</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>0.001506674541708266</v>
+        <v>1808.3</v>
       </c>
       <c r="AH36">
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>0.02604534601382076</v>
+        <v>8188.047</v>
       </c>
       <c r="AJ36">
-        <v>0.003444608807287104</v>
+        <v>36979.816</v>
       </c>
       <c r="AK36">
-        <v>0.001904263019896341</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>20868.851</v>
       </c>
       <c r="AM36">
-        <v>0.0009187589974457773</v>
+        <v>49959.243</v>
       </c>
       <c r="AN36">
-        <v>0.01683011304125865</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>0.05587820249232563</v>
+        <v>2220.628</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>66453.557</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>78663.09699999999</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>199430.986</v>
       </c>
       <c r="AS36">
-        <v>0.06194532107304346</v>
+        <v>15055.932</v>
       </c>
       <c r="AT36">
         <v>0</v>
       </c>
       <c r="AU36">
-        <v>0.0004756409285443966</v>
+        <v>18946.383</v>
       </c>
       <c r="AV36">
-        <v>0.002163447908052117</v>
+        <v>36205.363</v>
       </c>
       <c r="AW36">
-        <v>0.002489047168872325</v>
-      </c>
-      <c r="AX36">
-        <v>0.001862697939685261</v>
-      </c>
-      <c r="AY36">
-        <v>0.005092058608033832</v>
-      </c>
-      <c r="AZ36">
-        <v>0.02114547734442648</v>
-      </c>
-      <c r="BA36">
-        <v>0</v>
-      </c>
-      <c r="BB36">
-        <v>0.005340790499004889</v>
-      </c>
-      <c r="BC36">
-        <v>0.03251758579348007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
